--- a/data/strategies/海通场内策略结果.xlsx
+++ b/data/strategies/海通场内策略结果.xlsx
@@ -18,7 +18,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="200">
+  <si>
+    <t>华宝中证医疗ETF</t>
+  </si>
+  <si>
+    <t>鹏华中证酒ETF</t>
+  </si>
   <si>
     <t>华宝中证科技龙头ETF</t>
   </si>
@@ -29,12 +35,6 @@
     <t>国泰中证800汽车与零部件ETF</t>
   </si>
   <si>
-    <t>鹏华中证酒ETF</t>
-  </si>
-  <si>
-    <t>华宝中证医疗ETF</t>
-  </si>
-  <si>
     <t>大成中证全指医疗保健设备与服务ETF</t>
   </si>
   <si>
@@ -68,73 +68,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>5.18%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>29.39%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>12.89%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>23.07%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>23.28%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>29.33%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>4.63%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>21.40%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>13.08%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>27.25%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>23.70%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>29.25%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -143,6 +140,12 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>512170.OF</t>
+  </si>
+  <si>
+    <t>512690.OF</t>
+  </si>
+  <si>
     <t>515000.OF</t>
   </si>
   <si>
@@ -152,121 +155,115 @@
     <t>516110.OF</t>
   </si>
   <si>
-    <t>512690.OF</t>
-  </si>
-  <si>
-    <t>512170.OF</t>
-  </si>
-  <si>
     <t>516610.OF</t>
   </si>
   <si>
-    <t>2.22%</t>
-  </si>
-  <si>
-    <t>17.16%</t>
-  </si>
-  <si>
-    <t>15.03%</t>
-  </si>
-  <si>
-    <t>-3.91%</t>
-  </si>
-  <si>
-    <t>1.78%</t>
-  </si>
-  <si>
-    <t>0.18%</t>
-  </si>
-  <si>
-    <t>17.47%</t>
-  </si>
-  <si>
-    <t>47.36%</t>
-  </si>
-  <si>
-    <t>30.35%</t>
-  </si>
-  <si>
-    <t>23.84%</t>
-  </si>
-  <si>
-    <t>29.60%</t>
-  </si>
-  <si>
-    <t>28.05%</t>
-  </si>
-  <si>
-    <t>1.69%</t>
-  </si>
-  <si>
-    <t>23.56%</t>
-  </si>
-  <si>
-    <t>13.02%</t>
-  </si>
-  <si>
-    <t>5.65%</t>
-  </si>
-  <si>
-    <t>17.68%</t>
-  </si>
-  <si>
-    <t>15.73%</t>
-  </si>
-  <si>
-    <t>19.22%</t>
-  </si>
-  <si>
-    <t>41.84%</t>
-  </si>
-  <si>
-    <t>30.68%</t>
-  </si>
-  <si>
-    <t>32.39%</t>
-  </si>
-  <si>
-    <t>27.93%</t>
-  </si>
-  <si>
-    <t>27.34%</t>
-  </si>
-  <si>
-    <t>21.37%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>29.86%</t>
-  </si>
-  <si>
-    <t>31.39%</t>
-  </si>
-  <si>
-    <t>27.56%</t>
-  </si>
-  <si>
-    <t>27.26%</t>
-  </si>
-  <si>
-    <t>25.62%</t>
-  </si>
-  <si>
-    <t>42.46%</t>
-  </si>
-  <si>
-    <t>32.45%</t>
-  </si>
-  <si>
-    <t>40.03%</t>
-  </si>
-  <si>
-    <t>34.07%</t>
-  </si>
-  <si>
-    <t>33.15%</t>
+    <t>-3.15%</t>
+  </si>
+  <si>
+    <t>-8.51%</t>
+  </si>
+  <si>
+    <t>3.29%</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>12.00%</t>
+  </si>
+  <si>
+    <t>-2.89%</t>
+  </si>
+  <si>
+    <t>13.54%</t>
+  </si>
+  <si>
+    <t>10.23%</t>
+  </si>
+  <si>
+    <t>9.35%</t>
+  </si>
+  <si>
+    <t>57.99%</t>
+  </si>
+  <si>
+    <t>24.68%</t>
+  </si>
+  <si>
+    <t>14.15%</t>
+  </si>
+  <si>
+    <t>10.33%</t>
+  </si>
+  <si>
+    <t>-1.12%</t>
+  </si>
+  <si>
+    <t>1.46%</t>
+  </si>
+  <si>
+    <t>43.99%</t>
+  </si>
+  <si>
+    <t>14.55%</t>
+  </si>
+  <si>
+    <t>9.78%</t>
+  </si>
+  <si>
+    <t>38.50%</t>
+  </si>
+  <si>
+    <t>29.15%</t>
+  </si>
+  <si>
+    <t>22.85%</t>
+  </si>
+  <si>
+    <t>39.73%</t>
+  </si>
+  <si>
+    <t>35.10%</t>
+  </si>
+  <si>
+    <t>34.36%</t>
+  </si>
+  <si>
+    <t>31.42%</t>
+  </si>
+  <si>
+    <t>30.16%</t>
+  </si>
+  <si>
+    <t>21.83%</t>
+  </si>
+  <si>
+    <t>37.61%</t>
+  </si>
+  <si>
+    <t>30.30%</t>
+  </si>
+  <si>
+    <t>29.58%</t>
+  </si>
+  <si>
+    <t>35.18%</t>
+  </si>
+  <si>
+    <t>39.57%</t>
+  </si>
+  <si>
+    <t>25.48%</t>
+  </si>
+  <si>
+    <t>42.17%</t>
+  </si>
+  <si>
+    <t>32.18%</t>
+  </si>
+  <si>
+    <t>33.72%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -281,298 +278,304 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
+    <t>300015.SZ</t>
   </si>
   <si>
     <t>300760.SZ</t>
   </si>
   <si>
-    <t>002594.SZ</t>
-  </si>
-  <si>
-    <t>300015.SZ</t>
-  </si>
-  <si>
     <t>600763.SH</t>
   </si>
   <si>
+    <t>300750.SZ</t>
+  </si>
+  <si>
+    <t>600660.SH</t>
+  </si>
+  <si>
+    <t>002304.SZ</t>
+  </si>
+  <si>
+    <t>600104.SH</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
     <t>603259.SH</t>
   </si>
   <si>
-    <t>002304.SZ</t>
-  </si>
-  <si>
-    <t>600660.SH</t>
-  </si>
-  <si>
     <t>000568.SZ</t>
   </si>
   <si>
-    <t>600104.SH</t>
-  </si>
-  <si>
     <t>600519.SH</t>
   </si>
   <si>
     <t>000858.SZ</t>
   </si>
   <si>
-    <t>300750.SZ</t>
-  </si>
-  <si>
-    <t>300014.SZ</t>
-  </si>
-  <si>
     <t>600276.SH</t>
   </si>
   <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
     <t>300595.SZ</t>
   </si>
   <si>
-    <t>300003.SZ</t>
+    <t>300896.SZ</t>
+  </si>
+  <si>
+    <t>000625.SZ</t>
+  </si>
+  <si>
+    <t>000725.SZ</t>
+  </si>
+  <si>
+    <t>000860.SZ</t>
   </si>
   <si>
     <t>603882.SH</t>
   </si>
   <si>
-    <t>002460.SZ</t>
-  </si>
-  <si>
-    <t>000860.SZ</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>3.37%</t>
-  </si>
-  <si>
-    <t>3.24%</t>
-  </si>
-  <si>
-    <t>2.39%</t>
-  </si>
-  <si>
-    <t>1.99%</t>
-  </si>
-  <si>
-    <t>1.76%</t>
-  </si>
-  <si>
-    <t>1.68%</t>
-  </si>
-  <si>
-    <t>1.64%</t>
-  </si>
-  <si>
-    <t>1.63%</t>
-  </si>
-  <si>
-    <t>1.61%</t>
-  </si>
-  <si>
-    <t>1.57%</t>
-  </si>
-  <si>
-    <t>1.55%</t>
-  </si>
-  <si>
-    <t>1.48%</t>
-  </si>
-  <si>
-    <t>1.41%</t>
-  </si>
-  <si>
-    <t>1.38%</t>
-  </si>
-  <si>
-    <t>1.37%</t>
-  </si>
-  <si>
-    <t>1.30%</t>
-  </si>
-  <si>
-    <t>1.27%</t>
+    <t>486.65%</t>
+  </si>
+  <si>
+    <t>347.89%</t>
+  </si>
+  <si>
+    <t>314.52%</t>
+  </si>
+  <si>
+    <t>225.54%</t>
+  </si>
+  <si>
+    <t>193.60%</t>
+  </si>
+  <si>
+    <t>177.14%</t>
+  </si>
+  <si>
+    <t>176.45%</t>
+  </si>
+  <si>
+    <t>174.19%</t>
+  </si>
+  <si>
+    <t>170.56%</t>
+  </si>
+  <si>
+    <t>169.32%</t>
+  </si>
+  <si>
+    <t>167.97%</t>
+  </si>
+  <si>
+    <t>162.94%</t>
+  </si>
+  <si>
+    <t>162.67%</t>
+  </si>
+  <si>
+    <t>158.39%</t>
+  </si>
+  <si>
+    <t>146.70%</t>
+  </si>
+  <si>
+    <t>142.11%</t>
+  </si>
+  <si>
+    <t>134.87%</t>
+  </si>
+  <si>
+    <t>131.68%</t>
+  </si>
+  <si>
+    <t>126.51%</t>
+  </si>
+  <si>
+    <t>123.09%</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>爱尔眼科</t>
   </si>
   <si>
     <t>迈瑞医疗</t>
   </si>
   <si>
-    <t>比亚迪</t>
-  </si>
-  <si>
-    <t>爱尔眼科</t>
-  </si>
-  <si>
     <t>通策医疗</t>
   </si>
   <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>福耀玻璃</t>
+  </si>
+  <si>
+    <t>洋河股份</t>
+  </si>
+  <si>
+    <t>上汽集团</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
     <t>药明康德</t>
   </si>
   <si>
-    <t>洋河股份</t>
-  </si>
-  <si>
-    <t>福耀玻璃</t>
-  </si>
-  <si>
     <t>泸州老窖</t>
   </si>
   <si>
-    <t>上汽集团</t>
-  </si>
-  <si>
     <t>贵州茅台</t>
   </si>
   <si>
     <t>五粮液</t>
   </si>
   <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
     <t>恒瑞医药</t>
   </si>
   <si>
-    <t>海康威视</t>
-  </si>
-  <si>
     <t>欧普康视</t>
   </si>
   <si>
-    <t>乐普医疗</t>
+    <t>爱美客</t>
+  </si>
+  <si>
+    <t>长安汽车</t>
+  </si>
+  <si>
+    <t>京东方A</t>
+  </si>
+  <si>
+    <t>顺鑫农业</t>
   </si>
   <si>
     <t>金域医学</t>
   </si>
   <si>
-    <t>赣锋锂业</t>
-  </si>
-  <si>
-    <t>顺鑫农业</t>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>医疗服务-准分子手术</t>
   </si>
   <si>
     <t>生命信息与支持类产品</t>
   </si>
   <si>
-    <t>汽车</t>
-  </si>
-  <si>
-    <t>医疗服务-准分子手术</t>
-  </si>
-  <si>
     <t>医疗服务</t>
   </si>
   <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>汽车玻璃</t>
+  </si>
+  <si>
+    <t>白酒</t>
+  </si>
+  <si>
+    <t>整车业务</t>
+  </si>
+  <si>
+    <t>前端音视频产品</t>
+  </si>
+  <si>
     <t>中国区实验室服务</t>
   </si>
   <si>
-    <t>白酒</t>
-  </si>
-  <si>
-    <t>汽车玻璃</t>
-  </si>
-  <si>
     <t>中高档酒类</t>
   </si>
   <si>
-    <t>整车业务</t>
-  </si>
-  <si>
     <t>茅台酒</t>
   </si>
   <si>
     <t>酒类</t>
   </si>
   <si>
-    <t>动力电池系统</t>
-  </si>
-  <si>
-    <t>锂离子电池</t>
-  </si>
-  <si>
     <t>抗肿瘤</t>
   </si>
   <si>
-    <t>前端音视频产品</t>
-  </si>
-  <si>
     <t>角膜塑形镜(梦戴维)</t>
   </si>
   <si>
-    <t>药品-制剂</t>
+    <t>溶液类注射产品</t>
+  </si>
+  <si>
+    <t>整车</t>
+  </si>
+  <si>
+    <t>显示器件业务</t>
   </si>
   <si>
     <t>医学诊断服务</t>
   </si>
   <si>
-    <t>锂系列产品</t>
-  </si>
-  <si>
-    <t>12.99%</t>
-  </si>
-  <si>
-    <t>36.36%</t>
-  </si>
-  <si>
-    <t>22.94%</t>
-  </si>
-  <si>
-    <t>49.29%</t>
-  </si>
-  <si>
-    <t>44.35%</t>
-  </si>
-  <si>
-    <t>-6.90%</t>
-  </si>
-  <si>
-    <t>20.29%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>-8.19%</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>-26.78%</t>
-  </si>
-  <si>
-    <t>36.18%</t>
-  </si>
-  <si>
-    <t>84.17%</t>
-  </si>
-  <si>
-    <t>19.90%</t>
-  </si>
-  <si>
-    <t>21.16%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>-39.72%</t>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>16.08%</t>
+  </si>
+  <si>
+    <t>10.26%</t>
+  </si>
+  <si>
+    <t>32.76%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>15.33%</t>
+  </si>
+  <si>
+    <t>-15.98%</t>
+  </si>
+  <si>
+    <t>-10.69%</t>
+  </si>
+  <si>
+    <t>35.01%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>-32.63%</t>
+  </si>
+  <si>
+    <t>70.49%</t>
+  </si>
+  <si>
+    <t>119.09%</t>
+  </si>
+  <si>
+    <t>38.97%</t>
+  </si>
+  <si>
+    <t>8.44%</t>
+  </si>
+  <si>
+    <t>-47.82%</t>
+  </si>
+  <si>
+    <t>5.35%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -584,40 +587,37 @@
     <t>食品饮料</t>
   </si>
   <si>
+    <t>医药生物</t>
+  </si>
+  <si>
     <t>医疗器械</t>
   </si>
   <si>
-    <t>医药生物</t>
-  </si>
-  <si>
     <t>锂电池</t>
   </si>
   <si>
-    <t xml:space="preserve">锂电池 </t>
-  </si>
-  <si>
     <t>电子</t>
   </si>
   <si>
-    <t>18.59%</t>
-  </si>
-  <si>
-    <t>17.79%</t>
-  </si>
-  <si>
-    <t>17.23%</t>
-  </si>
-  <si>
-    <t>9.40%</t>
-  </si>
-  <si>
-    <t>7.73%</t>
-  </si>
-  <si>
-    <t>4.17%</t>
-  </si>
-  <si>
-    <t>3.93%</t>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>8.00%</t>
+  </si>
+  <si>
+    <t>7.00%</t>
+  </si>
+  <si>
+    <t>4.72%</t>
+  </si>
+  <si>
+    <t>1.95%</t>
+  </si>
+  <si>
+    <t>1.71%</t>
+  </si>
+  <si>
+    <t>1.32%</t>
   </si>
 </sst>
 </file>
@@ -981,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1056,25 +1056,25 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>0.9954180985108819</v>
+      </c>
+      <c r="C3">
+        <v>1.035618479880775</v>
+      </c>
+      <c r="D3">
         <v>1.010953927450873</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>1.07818653347421</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>1.022728363373248</v>
-      </c>
-      <c r="E3">
-        <v>1.035618479880775</v>
-      </c>
-      <c r="F3">
-        <v>0.9954180985108819</v>
       </c>
       <c r="G3">
         <v>0.9958538154765553</v>
       </c>
       <c r="H3">
-        <v>1.023340973302105</v>
+        <v>1.023050453889438</v>
       </c>
       <c r="I3">
         <v>1.018168368380631</v>
@@ -1088,25 +1088,25 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.014212379619023</v>
+      </c>
+      <c r="C4">
+        <v>1.088040238450074</v>
+      </c>
+      <c r="D4">
         <v>1.046898222050971</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>1.091441744308904</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>1.021860567760362</v>
-      </c>
-      <c r="E4">
-        <v>1.088040238450074</v>
-      </c>
-      <c r="F4">
-        <v>1.014212379619023</v>
       </c>
       <c r="G4">
         <v>1.014267105773177</v>
       </c>
       <c r="H4">
-        <v>1.046350542395614</v>
+        <v>1.04617010565416</v>
       </c>
       <c r="I4">
         <v>1.027111201157197</v>
@@ -1120,25 +1120,25 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.034618811251114</v>
+      </c>
+      <c r="C5">
+        <v>1.090089418777943</v>
+      </c>
+      <c r="D5">
         <v>1.048329388451588</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>1.079195082124676</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>1.019809446993545</v>
-      </c>
-      <c r="E5">
-        <v>1.090089418777943</v>
-      </c>
-      <c r="F5">
-        <v>1.034618811251114</v>
       </c>
       <c r="G5">
         <v>1.028903413893073</v>
       </c>
       <c r="H5">
-        <v>1.050293639999051</v>
+        <v>1.050279558796315</v>
       </c>
       <c r="I5">
         <v>1.025290909062353</v>
@@ -1152,25 +1152,25 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.043612914174197</v>
+      </c>
+      <c r="C6">
+        <v>1.101304023845007</v>
+      </c>
+      <c r="D6">
         <v>1.056035669070292</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>1.111756795696859</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>1.044954665597853</v>
-      </c>
-      <c r="E6">
-        <v>1.101304023845007</v>
-      </c>
-      <c r="F6">
-        <v>1.043612914174197</v>
       </c>
       <c r="G6">
         <v>1.037185495024974</v>
       </c>
       <c r="H6">
-        <v>1.065989140286351</v>
+        <v>1.065874762652611</v>
       </c>
       <c r="I6">
         <v>1.026858339183711</v>
@@ -1184,25 +1184,25 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.044758389546477</v>
+      </c>
+      <c r="C7">
+        <v>1.069932935916542</v>
+      </c>
+      <c r="D7">
         <v>1.062530962734629</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>1.098261454231102</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>1.068292471217046</v>
-      </c>
-      <c r="E7">
-        <v>1.069932935916542</v>
-      </c>
-      <c r="F7">
-        <v>1.044758389546477</v>
       </c>
       <c r="G7">
         <v>1.038997980744731</v>
       </c>
       <c r="H7">
-        <v>1.063961704159265</v>
+        <v>1.063731198701752</v>
       </c>
       <c r="I7">
         <v>1.029917812005761</v>
@@ -1216,25 +1216,25 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.047770565525434</v>
+      </c>
+      <c r="C8">
+        <v>1.034239940387481</v>
+      </c>
+      <c r="D8">
         <v>1.071723454615512</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>1.055998463163961</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>1.097743968548195</v>
-      </c>
-      <c r="E8">
-        <v>1.034239940387481</v>
-      </c>
-      <c r="F8">
-        <v>1.047770565525434</v>
       </c>
       <c r="G8">
         <v>1.038076980178648</v>
       </c>
       <c r="H8">
-        <v>1.057654916038071</v>
+        <v>1.057426358978738</v>
       </c>
       <c r="I8">
         <v>1.013866573688848</v>
@@ -1248,25 +1248,25 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.059013194179288</v>
+      </c>
+      <c r="C9">
+        <v>1.066318926974665</v>
+      </c>
+      <c r="D9">
         <v>1.097704629272857</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>1.083181250600327</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>1.100968630884336</v>
-      </c>
-      <c r="E9">
-        <v>1.066318926974665</v>
-      </c>
-      <c r="F9">
-        <v>1.059013194179288</v>
       </c>
       <c r="G9">
         <v>1.041996445334472</v>
       </c>
       <c r="H9">
-        <v>1.075019637144947</v>
+        <v>1.074741868351351</v>
       </c>
       <c r="I9">
         <v>1.027660901099557</v>
@@ -1280,25 +1280,25 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.041746213567519</v>
+      </c>
+      <c r="C10">
+        <v>1.053390461997019</v>
+      </c>
+      <c r="D10">
         <v>1.09346617493257</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>1.045961002785516</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>1.096297285026672</v>
-      </c>
-      <c r="E10">
-        <v>1.053390461997019</v>
-      </c>
-      <c r="F10">
-        <v>1.041746213567519</v>
       </c>
       <c r="G10">
         <v>1.025833456721241</v>
       </c>
       <c r="H10">
-        <v>1.059551744068629</v>
+        <v>1.059330291557861</v>
       </c>
       <c r="I10">
         <v>1.020386015005238</v>
@@ -1312,25 +1312,25 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.04331593907768</v>
+      </c>
+      <c r="C11">
+        <v>1.016467958271237</v>
+      </c>
+      <c r="D11">
         <v>1.0800352287114</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>1.018345980213236</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>1.057061047172691</v>
-      </c>
-      <c r="E11">
-        <v>1.016467958271237</v>
-      </c>
-      <c r="F11">
-        <v>1.04331593907768</v>
       </c>
       <c r="G11">
         <v>1.030340918698013</v>
       </c>
       <c r="H11">
-        <v>1.041010472948426</v>
+        <v>1.040817486390547</v>
       </c>
       <c r="I11">
         <v>1.011430617658561</v>
@@ -1344,25 +1344,25 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.040558313181452</v>
+      </c>
+      <c r="C12">
+        <v>0.9874068554396422</v>
+      </c>
+      <c r="D12">
         <v>1.070017063907084</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>1.040678128902123</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>1.056625612116048</v>
-      </c>
-      <c r="E12">
-        <v>0.9874068554396422</v>
-      </c>
-      <c r="F12">
-        <v>1.040558313181452</v>
       </c>
       <c r="G12">
         <v>1.032340014331468</v>
       </c>
       <c r="H12">
-        <v>1.038111763963886</v>
+        <v>1.037698113842946</v>
       </c>
       <c r="I12">
         <v>1.007914108598721</v>
@@ -1376,25 +1376,25 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.052819142166221</v>
+      </c>
+      <c r="C13">
+        <v>0.9735096870342771</v>
+      </c>
+      <c r="D13">
         <v>1.091319425331645</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>1.050859667659207</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>1.05322523850705</v>
-      </c>
-      <c r="E13">
-        <v>0.9735096870342771</v>
-      </c>
-      <c r="F13">
-        <v>1.052819142166221</v>
       </c>
       <c r="G13">
         <v>1.041313170932387</v>
       </c>
       <c r="H13">
-        <v>1.044113540184034</v>
+        <v>1.043534288865082</v>
       </c>
       <c r="I13">
         <v>1.023142367573358</v>
@@ -1408,25 +1408,25 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.030758134996394</v>
+      </c>
+      <c r="C14">
+        <v>0.9570789865871833</v>
+      </c>
+      <c r="D14">
         <v>1.074090383662685</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>1.02165978292191</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>1.035860591331532</v>
-      </c>
-      <c r="E14">
-        <v>0.9570789865871833</v>
-      </c>
-      <c r="F14">
-        <v>1.030758134996394</v>
       </c>
       <c r="G14">
         <v>1.017538621464038</v>
       </c>
       <c r="H14">
-        <v>1.02308152349194</v>
+        <v>1.022541958266935</v>
       </c>
       <c r="I14">
         <v>1.017160061629216</v>
@@ -1440,25 +1440,25 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.076068049722116</v>
+      </c>
+      <c r="C15">
+        <v>0.9667287630402384</v>
+      </c>
+      <c r="D15">
         <v>1.086145208344801</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>1.069685909134569</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>1.059142054943396</v>
-      </c>
-      <c r="E15">
-        <v>0.9667287630402384</v>
-      </c>
-      <c r="F15">
-        <v>1.076068049722116</v>
       </c>
       <c r="G15">
         <v>1.05878027917659</v>
       </c>
       <c r="H15">
-        <v>1.053009949207079</v>
+        <v>1.052444777683494</v>
       </c>
       <c r="I15">
         <v>1.026434284942462</v>
@@ -1472,25 +1472,25 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.111492936235204</v>
+      </c>
+      <c r="C16">
+        <v>0.9926602086438151</v>
+      </c>
+      <c r="D16">
         <v>1.108438377277481</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>1.099029872250505</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>1.078399462281797</v>
-      </c>
-      <c r="E16">
-        <v>0.9926602086438151</v>
-      </c>
-      <c r="F16">
-        <v>1.111492936235204</v>
       </c>
       <c r="G16">
         <v>1.085539121984345</v>
       </c>
       <c r="H16">
-        <v>1.079504737728709</v>
+        <v>1.078988162205464</v>
       </c>
       <c r="I16">
         <v>1.04011081950838</v>
@@ -1504,25 +1504,25 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.176997157524076</v>
+      </c>
+      <c r="C17">
+        <v>0.9887108792846497</v>
+      </c>
+      <c r="D17">
         <v>1.116695106511807</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>1.13019882816252</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>1.088197609056373</v>
-      </c>
-      <c r="E17">
-        <v>0.9887108792846497</v>
-      </c>
-      <c r="F17">
-        <v>1.176997157524076</v>
       </c>
       <c r="G17">
         <v>1.144411053378515</v>
       </c>
       <c r="H17">
-        <v>1.107694224269832</v>
+        <v>1.107288294780504</v>
       </c>
       <c r="I17">
         <v>1.042515364113389</v>
@@ -1536,25 +1536,25 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.190276186839761</v>
+      </c>
+      <c r="C18">
+        <v>1.046758569299553</v>
+      </c>
+      <c r="D18">
         <v>1.109979633401222</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>1.1354336759197</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>1.103486027045141</v>
-      </c>
-      <c r="E18">
-        <v>1.046758569299553</v>
-      </c>
-      <c r="F18">
-        <v>1.190276186839761</v>
       </c>
       <c r="G18">
         <v>1.1541403012188</v>
       </c>
       <c r="H18">
-        <v>1.123339341511094</v>
+        <v>1.123297448745186</v>
       </c>
       <c r="I18">
         <v>1.043693292561303</v>
@@ -1568,25 +1568,25 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.140129820542192</v>
+      </c>
+      <c r="C19">
+        <v>1.02306259314456</v>
+      </c>
+      <c r="D19">
         <v>1.07166840975395</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>1.107674574968783</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>1.080071013332571</v>
-      </c>
-      <c r="E19">
-        <v>1.02306259314456</v>
-      </c>
-      <c r="F19">
-        <v>1.140129820542192</v>
       </c>
       <c r="G19">
         <v>1.113084593012164</v>
       </c>
       <c r="H19">
-        <v>1.08928573070806</v>
+        <v>1.08920497785288</v>
       </c>
       <c r="I19">
         <v>1.026047924411546</v>
@@ -1600,25 +1600,25 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.134741843791099</v>
+      </c>
+      <c r="C20">
+        <v>0.9937406855439641</v>
+      </c>
+      <c r="D20">
         <v>1.080585677327021</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>1.120785707424839</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>1.081326315162532</v>
-      </c>
-      <c r="E20">
-        <v>0.9937406855439641</v>
-      </c>
-      <c r="F20">
-        <v>1.134741843791099</v>
       </c>
       <c r="G20">
         <v>1.107532885306502</v>
       </c>
       <c r="H20">
-        <v>1.086594520825492</v>
+        <v>1.086230076548409</v>
       </c>
       <c r="I20">
         <v>1.02984870687015</v>
@@ -1632,25 +1632,25 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.090238004327351</v>
+      </c>
+      <c r="C21">
+        <v>0.9790983606557376</v>
+      </c>
+      <c r="D21">
         <v>1.029008642043265</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>1.073191816348093</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>1.044105364654039</v>
-      </c>
-      <c r="E21">
-        <v>0.9790983606557376</v>
-      </c>
-      <c r="F21">
-        <v>1.090238004327351</v>
       </c>
       <c r="G21">
         <v>1.065913756391453</v>
       </c>
       <c r="H21">
-        <v>1.046967733121247</v>
+        <v>1.046803412654206</v>
       </c>
       <c r="I21">
         <v>1.007424090364388</v>
@@ -1664,25 +1664,25 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.086080352976115</v>
+      </c>
+      <c r="C22">
+        <v>0.9960134128166913</v>
+      </c>
+      <c r="D22">
         <v>1.024219739087356</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>1.052300451445586</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>1.036451669991755</v>
-      </c>
-      <c r="E22">
-        <v>0.9960134128166913</v>
-      </c>
-      <c r="F22">
-        <v>1.086080352976115</v>
       </c>
       <c r="G22">
         <v>1.062867797475346</v>
       </c>
       <c r="H22">
-        <v>1.042941615878485</v>
+        <v>1.042969483754784</v>
       </c>
       <c r="I22">
         <v>0.9967065120596316</v>
@@ -1696,25 +1696,25 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.112468711552331</v>
+      </c>
+      <c r="C23">
+        <v>0.9940760059612518</v>
+      </c>
+      <c r="D23">
         <v>1.03445808333792</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>1.048554413600999</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>1.032151528349045</v>
-      </c>
-      <c r="E23">
-        <v>0.9940760059612518</v>
-      </c>
-      <c r="F23">
-        <v>1.112468711552331</v>
       </c>
       <c r="G23">
         <v>1.093767634414129</v>
       </c>
       <c r="H23">
-        <v>1.052468664725281</v>
+        <v>1.052586325828154</v>
       </c>
       <c r="I23">
         <v>1.004110184997589</v>
@@ -1728,25 +1728,25 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.121929489627084</v>
+      </c>
+      <c r="C24">
+        <v>1.036587183308495</v>
+      </c>
+      <c r="D24">
         <v>1.050531182914075</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>1.10436077226011</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>1.089845636604087</v>
-      </c>
-      <c r="E24">
-        <v>1.036587183308495</v>
-      </c>
-      <c r="F24">
-        <v>1.121929489627084</v>
       </c>
       <c r="G24">
         <v>1.101801601717952</v>
       </c>
       <c r="H24">
-        <v>1.084108677737118</v>
+        <v>1.084126801325925</v>
       </c>
       <c r="I24">
         <v>1.013770768841751</v>
@@ -1760,25 +1760,25 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.12566289084044</v>
+      </c>
+      <c r="C25">
+        <v>1.039456035767511</v>
+      </c>
+      <c r="D25">
         <v>1.024164694225794</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>1.104120641629046</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>1.079667228946712</v>
-      </c>
-      <c r="E25">
-        <v>1.039456035767511</v>
-      </c>
-      <c r="F25">
-        <v>1.12566289084044</v>
       </c>
       <c r="G25">
         <v>1.102321394237226</v>
       </c>
       <c r="H25">
-        <v>1.079081252810985</v>
+        <v>1.07926542076475</v>
       </c>
       <c r="I25">
         <v>1.00506038061224</v>
@@ -1792,25 +1792,25 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.109032285435493</v>
+      </c>
+      <c r="C26">
+        <v>1.046535022354694</v>
+      </c>
+      <c r="D26">
         <v>1.013651125667419</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>1.0789069253674</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>1.070023653275577</v>
-      </c>
-      <c r="E26">
-        <v>1.046535022354694</v>
-      </c>
-      <c r="F26">
-        <v>1.109032285435493</v>
       </c>
       <c r="G26">
         <v>1.083276207200231</v>
       </c>
       <c r="H26">
-        <v>1.066697951439809</v>
+        <v>1.067012997723585</v>
       </c>
       <c r="I26">
         <v>0.9939815709167896</v>
@@ -1824,25 +1824,25 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.132111492936235</v>
+      </c>
+      <c r="C27">
+        <v>1.057190760059612</v>
+      </c>
+      <c r="D27">
         <v>1.006660428249023</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>1.040774181154548</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>1.035722143480189</v>
-      </c>
-      <c r="E27">
-        <v>1.057190760059612</v>
-      </c>
-      <c r="F27">
-        <v>1.132111492936235</v>
       </c>
       <c r="G27">
         <v>1.111278635698508</v>
       </c>
       <c r="H27">
-        <v>1.063553883907407</v>
+        <v>1.064263222125369</v>
       </c>
       <c r="I27">
         <v>0.9800160512383169</v>
@@ -1856,25 +1856,25 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.145772347376013</v>
+      </c>
+      <c r="C28">
+        <v>1.058271236959761</v>
+      </c>
+      <c r="D28">
         <v>1.018550118346452</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>1.066420132552108</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>1.051789351486931</v>
-      </c>
-      <c r="E28">
-        <v>1.058271236959761</v>
-      </c>
-      <c r="F28">
-        <v>1.145772347376013</v>
       </c>
       <c r="G28">
         <v>1.124768056273677</v>
       </c>
       <c r="H28">
-        <v>1.077244106348659</v>
+        <v>1.077839473015845</v>
       </c>
       <c r="I28">
         <v>0.9930973392952219</v>
@@ -1888,25 +1888,25 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.168342454711298</v>
+      </c>
+      <c r="C29">
+        <v>1.085208643815201</v>
+      </c>
+      <c r="D29">
         <v>1.04332030604943</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>1.100374603784459</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>1.072590956442874</v>
-      </c>
-      <c r="E29">
-        <v>1.085208643815201</v>
-      </c>
-      <c r="F29">
-        <v>1.168342454711298</v>
       </c>
       <c r="G29">
         <v>1.149352423906207</v>
       </c>
       <c r="H29">
-        <v>1.102884723686232</v>
+        <v>1.103434004629695</v>
       </c>
       <c r="I29">
         <v>1.014256075362292</v>
@@ -1920,25 +1920,25 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.1979975393492</v>
+      </c>
+      <c r="C30">
+        <v>1.13349478390462</v>
+      </c>
+      <c r="D30">
         <v>1.06660428249023</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>1.116319277687062</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>1.091414025058108</v>
-      </c>
-      <c r="E30">
-        <v>1.13349478390462</v>
-      </c>
-      <c r="F30">
-        <v>1.1979975393492</v>
       </c>
       <c r="G30">
         <v>1.176735527489349</v>
       </c>
       <c r="H30">
-        <v>1.13003791473735</v>
+        <v>1.130780758552733</v>
       </c>
       <c r="I30">
         <v>1.024824449396979</v>
@@ -1952,25 +1952,25 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.143226846548725</v>
+      </c>
+      <c r="C31">
+        <v>1.091356184798808</v>
+      </c>
+      <c r="D31">
         <v>1.044806517311609</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>1.101239074056287</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>1.092005818718424</v>
-      </c>
-      <c r="E31">
-        <v>1.091356184798808</v>
-      </c>
-      <c r="F31">
-        <v>1.143226846548725</v>
       </c>
       <c r="G31">
         <v>1.126776428572704</v>
       </c>
       <c r="H31">
-        <v>1.099633021507921</v>
+        <v>1.100075708707819</v>
       </c>
       <c r="I31">
         <v>1.038860644782327</v>
@@ -1984,25 +1984,25 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.156633150905774</v>
+      </c>
+      <c r="C32">
+        <v>1.089269746646796</v>
+      </c>
+      <c r="D32">
         <v>1.04128364617163</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>1.07674574968783</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>1.081714619796377</v>
-      </c>
-      <c r="E32">
-        <v>1.089269746646796</v>
-      </c>
-      <c r="F32">
-        <v>1.156633150905774</v>
       </c>
       <c r="G32">
         <v>1.14908161543985</v>
       </c>
       <c r="H32">
-        <v>1.09872035420626</v>
+        <v>1.099359721714725</v>
       </c>
       <c r="I32">
         <v>1.052829305603327</v>
@@ -2016,25 +2016,25 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.104280683891222</v>
+      </c>
+      <c r="C33">
+        <v>1.005104321907601</v>
+      </c>
+      <c r="D33">
         <v>1.009137447019321</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <v>1.056910959562002</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>1.033261125076718</v>
-      </c>
-      <c r="E33">
-        <v>1.005104321907601</v>
-      </c>
-      <c r="F33">
-        <v>1.104280683891222</v>
       </c>
       <c r="G33">
         <v>1.102249757190932</v>
       </c>
       <c r="H33">
-        <v>1.051636050649793</v>
+        <v>1.05185273364588</v>
       </c>
       <c r="I33">
         <v>1.045538713796369</v>
@@ -2048,25 +2048,25 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.087692503500064</v>
+      </c>
+      <c r="C34">
+        <v>1.005774962742176</v>
+      </c>
+      <c r="D34">
         <v>1.01012825452744</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>1.033618288348862</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>1.007561411983614</v>
-      </c>
-      <c r="E34">
-        <v>1.005774962742176</v>
-      </c>
-      <c r="F34">
-        <v>1.087692503500064</v>
       </c>
       <c r="G34">
         <v>1.082397940521082</v>
       </c>
       <c r="H34">
-        <v>1.037702337382216</v>
+        <v>1.037950941999045</v>
       </c>
       <c r="I34">
         <v>1.041481928221752</v>
@@ -2080,25 +2080,25 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.046073564973909</v>
+      </c>
+      <c r="C35">
+        <v>0.9494038748137108</v>
+      </c>
+      <c r="D35">
         <v>0.9914680464578631</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <v>0.9825665161848046</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>0.9763674236757957</v>
-      </c>
-      <c r="E35">
-        <v>0.9494038748137108</v>
-      </c>
-      <c r="F35">
-        <v>1.046073564973909</v>
       </c>
       <c r="G35">
         <v>1.040746417228446</v>
       </c>
       <c r="H35">
-        <v>0.9976634369634105</v>
+        <v>0.9977706513491353</v>
       </c>
       <c r="I35">
         <v>1.026555218929781</v>
@@ -2112,25 +2112,25 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.042891688939799</v>
+      </c>
+      <c r="C36">
+        <v>0.9317436661698956</v>
+      </c>
+      <c r="D36">
         <v>0.9862387846094568</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>0.9625396215541255</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>0.9720005129410668</v>
-      </c>
-      <c r="E36">
-        <v>0.9317436661698956</v>
-      </c>
-      <c r="F36">
-        <v>1.042891688939799</v>
       </c>
       <c r="G36">
         <v>1.033728016069703</v>
       </c>
       <c r="H36">
-        <v>0.9880523699276856</v>
+        <v>0.9881816546724161</v>
       </c>
       <c r="I36">
         <v>1.020737822968348</v>
@@ -2144,25 +2144,25 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.014254804632811</v>
+      </c>
+      <c r="C37">
+        <v>0.9068926974664678</v>
+      </c>
+      <c r="D37">
         <v>0.9754499917432707</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>0.9374699836711171</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>0.9466977083162603</v>
-      </c>
-      <c r="E37">
-        <v>0.9068926974664678</v>
-      </c>
-      <c r="F37">
-        <v>1.014254804632812</v>
       </c>
       <c r="G37">
         <v>1.001464598722146</v>
       </c>
       <c r="H37">
-        <v>0.9636325143281641</v>
+        <v>0.9636736519615885</v>
       </c>
       <c r="I37">
         <v>0.9995665223311676</v>
@@ -2176,25 +2176,25 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.028764159348352</v>
+      </c>
+      <c r="C38">
+        <v>0.9116616989567808</v>
+      </c>
+      <c r="D38">
         <v>0.9960367699675235</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>0.980981654019787</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>0.9720432222799559</v>
-      </c>
-      <c r="E38">
-        <v>0.9116616989567808</v>
-      </c>
-      <c r="F38">
-        <v>1.028764159348352</v>
       </c>
       <c r="G38">
         <v>1.016483458368992</v>
       </c>
       <c r="H38">
-        <v>0.9843703010052662</v>
+        <v>0.9841873381768554</v>
       </c>
       <c r="I38">
         <v>1.019055741144727</v>
@@ -2208,25 +2208,25 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>1.008654702812778</v>
+      </c>
+      <c r="C39">
+        <v>0.8868107302533531</v>
+      </c>
+      <c r="D39">
         <v>0.9918533604887985</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <v>0.9807415233887236</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>0.9692999218397649</v>
-      </c>
-      <c r="E39">
-        <v>0.8868107302533531</v>
-      </c>
-      <c r="F39">
-        <v>1.008654702812778</v>
       </c>
       <c r="G39">
         <v>1.000020135558122</v>
       </c>
       <c r="H39">
-        <v>0.9730307361857418</v>
+        <v>0.9726450889316848</v>
       </c>
       <c r="I39">
         <v>1.010400322909452</v>
@@ -2240,25 +2240,25 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.026727758686522</v>
+      </c>
+      <c r="C40">
+        <v>0.9073025335320417</v>
+      </c>
+      <c r="D40">
         <v>1.003908185170914</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>0.9912112189030833</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>0.9780692073138362</v>
-      </c>
-      <c r="E40">
-        <v>0.9073025335320417</v>
-      </c>
-      <c r="F40">
-        <v>1.026727758686522</v>
       </c>
       <c r="G40">
         <v>1.019522513959997</v>
       </c>
       <c r="H40">
-        <v>0.9878879309188251</v>
+        <v>0.987582485359548</v>
       </c>
       <c r="I40">
         <v>1.024758485403896</v>
@@ -2272,25 +2272,25 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>0.9777268677612321</v>
+      </c>
+      <c r="C41">
+        <v>0.8619597615499254</v>
+      </c>
+      <c r="D41">
         <v>0.9703308196179886</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>0.9335798674478917</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>0.9442258099947074</v>
-      </c>
-      <c r="E41">
-        <v>0.8619597615499254</v>
-      </c>
-      <c r="F41">
-        <v>0.977726867761232</v>
       </c>
       <c r="G41">
         <v>0.9723574215111456</v>
       </c>
       <c r="H41">
-        <v>0.9434493438360064</v>
+        <v>0.9431282235472328</v>
       </c>
       <c r="I41">
         <v>1.005478152568434</v>
@@ -2304,25 +2304,25 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>0.980654193712613</v>
+      </c>
+      <c r="C42">
+        <v>0.8716095380029806</v>
+      </c>
+      <c r="D42">
         <v>0.9719821654648538</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>0.9333397368168285</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>0.951029047796362</v>
-      </c>
-      <c r="E42">
-        <v>0.8716095380029806</v>
-      </c>
-      <c r="F42">
-        <v>0.9806541937126129</v>
       </c>
       <c r="G42">
         <v>0.9803875192381173</v>
       </c>
       <c r="H42">
-        <v>0.948211972681648</v>
+        <v>0.9479466818288176</v>
       </c>
       <c r="I42">
         <v>1.005715308829281</v>
@@ -2336,25 +2336,25 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.9222349497263587</v>
+      </c>
+      <c r="C43">
+        <v>0.8118479880774961</v>
+      </c>
+      <c r="D43">
         <v>0.9341663455716409</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>0.8843050619537028</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>0.9067932552086894</v>
-      </c>
-      <c r="E43">
-        <v>0.8118479880774961</v>
-      </c>
-      <c r="F43">
-        <v>0.9222349497263587</v>
       </c>
       <c r="G43">
         <v>0.9225920731673487</v>
       </c>
       <c r="H43">
-        <v>0.8971124031989908</v>
+        <v>0.8966904608503834</v>
       </c>
       <c r="I43">
         <v>0.9826137761087841</v>
@@ -2368,25 +2368,25 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.8939798905434645</v>
+      </c>
+      <c r="C44">
+        <v>0.7886363636363635</v>
+      </c>
+      <c r="D44">
         <v>0.9073044531293004</v>
       </c>
-      <c r="C44">
+      <c r="E44">
         <v>0.8690807799442898</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>0.8846548503288518</v>
-      </c>
-      <c r="E44">
-        <v>0.7886363636363635</v>
-      </c>
-      <c r="F44">
-        <v>0.8939798905434645</v>
       </c>
       <c r="G44">
         <v>0.8905470891335152</v>
       </c>
       <c r="H44">
-        <v>0.8725254915734726</v>
+        <v>0.8720566466790038</v>
       </c>
       <c r="I44">
         <v>0.9593049279814547</v>
@@ -2400,25 +2400,25 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.9166348479063257</v>
+      </c>
+      <c r="C45">
+        <v>0.8135245901639344</v>
+      </c>
+      <c r="D45">
         <v>0.9117080420542742</v>
       </c>
-      <c r="C45">
+      <c r="E45">
         <v>0.890500432235136</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>0.8972590745517847</v>
-      </c>
-      <c r="E45">
-        <v>0.8135245901639344</v>
-      </c>
-      <c r="F45">
-        <v>0.9166348479063254</v>
       </c>
       <c r="G45">
         <v>0.9087486877791948</v>
       </c>
       <c r="H45">
-        <v>0.8898430286954043</v>
+        <v>0.8894827835143087</v>
       </c>
       <c r="I45">
         <v>0.952121135020441</v>
@@ -2432,25 +2432,25 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9417080310551101</v>
+      </c>
+      <c r="C46">
+        <v>0.8441505216095379</v>
+      </c>
+      <c r="D46">
         <v>0.9213408928276545</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <v>0.9168187493996736</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>0.9205758234182384</v>
-      </c>
-      <c r="E46">
-        <v>0.8441505216095379</v>
-      </c>
-      <c r="F46">
-        <v>0.9417080310551101</v>
       </c>
       <c r="G46">
         <v>0.9314571086316078</v>
       </c>
       <c r="H46">
-        <v>0.9127392341565373</v>
+        <v>0.912477728708724</v>
       </c>
       <c r="I46">
         <v>0.9759262836671583</v>
@@ -2464,25 +2464,25 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>0.9434898816342115</v>
+      </c>
+      <c r="C47">
+        <v>0.8434053651266765</v>
+      </c>
+      <c r="D47">
         <v>0.9142951505476964</v>
       </c>
-      <c r="C47">
+      <c r="E47">
         <v>0.9207568917491116</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>0.9234232159553034</v>
-      </c>
-      <c r="E47">
-        <v>0.8434053651266765</v>
-      </c>
-      <c r="F47">
-        <v>0.9434898816342115</v>
       </c>
       <c r="G47">
         <v>0.9337275045976334</v>
       </c>
       <c r="H47">
-        <v>0.9132264317972386</v>
+        <v>0.9129856478195589</v>
       </c>
       <c r="I47">
         <v>0.9772691220977807</v>
@@ -2496,25 +2496,25 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.8962708412880235</v>
+      </c>
+      <c r="C48">
+        <v>0.8051415797317436</v>
+      </c>
+      <c r="D48">
         <v>0.879506798040403</v>
       </c>
-      <c r="C48">
+      <c r="E48">
         <v>0.8923734511574297</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <v>0.903489132528878</v>
-      </c>
-      <c r="E48">
-        <v>0.8051415797317436</v>
-      </c>
-      <c r="F48">
-        <v>0.8962708412880235</v>
       </c>
       <c r="G48">
         <v>0.8898315476199259</v>
       </c>
       <c r="H48">
-        <v>0.8778506040564458</v>
+        <v>0.8774982649155555</v>
       </c>
       <c r="I48">
         <v>0.9696502808966706</v>
@@ -2528,25 +2528,25 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.902634593356243</v>
+      </c>
+      <c r="C49">
+        <v>0.8263412816691506</v>
+      </c>
+      <c r="D49">
         <v>0.8780756316397864</v>
       </c>
-      <c r="C49">
+      <c r="E49">
         <v>0.894870809720488</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <v>0.9155694881003309</v>
-      </c>
-      <c r="E49">
-        <v>0.8263412816691506</v>
-      </c>
-      <c r="F49">
-        <v>0.902634593356243</v>
       </c>
       <c r="G49">
         <v>0.8948969578635378</v>
       </c>
       <c r="H49">
-        <v>0.885408877994475</v>
+        <v>0.8851890251628005</v>
       </c>
       <c r="I49">
         <v>0.9730065916875945</v>
@@ -2560,25 +2560,25 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9117983963344788</v>
+      </c>
+      <c r="C50">
+        <v>0.8384873323397913</v>
+      </c>
+      <c r="D50">
         <v>0.8911763086915836</v>
       </c>
-      <c r="C50">
+      <c r="E50">
         <v>0.9174430890404381</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>0.9198825116613835</v>
-      </c>
-      <c r="E50">
-        <v>0.8384873323397913</v>
-      </c>
-      <c r="F50">
-        <v>0.9117983963344788</v>
       </c>
       <c r="G50">
         <v>0.9064752305479269</v>
       </c>
       <c r="H50">
-        <v>0.8976114703102346</v>
+        <v>0.8973198019649457</v>
       </c>
       <c r="I50">
         <v>0.9777371523344186</v>
@@ -2592,25 +2592,25 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9280896016291206</v>
+      </c>
+      <c r="C51">
+        <v>0.8647168405365127</v>
+      </c>
+      <c r="D51">
         <v>0.8953046733087466</v>
       </c>
-      <c r="C51">
+      <c r="E51">
         <v>0.9207568917491116</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <v>0.9235641782236402</v>
-      </c>
-      <c r="E51">
-        <v>0.8647168405365127</v>
-      </c>
-      <c r="F51">
-        <v>0.9280896016291205</v>
       </c>
       <c r="G51">
         <v>0.9211610692515193</v>
       </c>
       <c r="H51">
-        <v>0.9089231948505667</v>
+        <v>0.9088069192361057</v>
       </c>
       <c r="I51">
         <v>0.9853544229642648</v>
@@ -2624,25 +2624,25 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.9075983199694539</v>
+      </c>
+      <c r="C52">
+        <v>0.8422131147540983</v>
+      </c>
+      <c r="D52">
         <v>0.8732316838223152</v>
       </c>
-      <c r="C52">
+      <c r="E52">
         <v>0.8901162232254347</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <v>0.8998691704746479</v>
-      </c>
-      <c r="E52">
-        <v>0.8422131147540983</v>
-      </c>
-      <c r="F52">
-        <v>0.9075983199694539</v>
       </c>
       <c r="G52">
         <v>0.9027514318354449</v>
       </c>
       <c r="H52">
-        <v>0.885920430308669</v>
+        <v>0.8858527479470479</v>
       </c>
       <c r="I52">
         <v>0.9747907606433689</v>
@@ -2656,25 +2656,25 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.9096347206312841</v>
+      </c>
+      <c r="C53">
+        <v>0.8442622950819672</v>
+      </c>
+      <c r="D53">
         <v>0.8820939065338251</v>
       </c>
-      <c r="C53">
+      <c r="E53">
         <v>0.9013543367591971</v>
       </c>
-      <c r="D53">
+      <c r="F53">
         <v>0.9143125775201612</v>
-      </c>
-      <c r="E53">
-        <v>0.8442622950819672</v>
-      </c>
-      <c r="F53">
-        <v>0.9096347206312841</v>
       </c>
       <c r="G53">
         <v>0.9088355657988472</v>
       </c>
       <c r="H53">
-        <v>0.8933986526001367</v>
+        <v>0.8932508964622379</v>
       </c>
       <c r="I53">
         <v>0.9903535512972134</v>
@@ -2688,25 +2688,25 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9061982945144458</v>
+      </c>
+      <c r="C54">
+        <v>0.8527570789865871</v>
+      </c>
+      <c r="D54">
         <v>0.8782407662244729</v>
       </c>
-      <c r="C54">
+      <c r="E54">
         <v>0.8681682835462493</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <v>0.8944794401902005</v>
-      </c>
-      <c r="E54">
-        <v>0.8527570789865871</v>
-      </c>
-      <c r="F54">
-        <v>0.9061982945144458</v>
       </c>
       <c r="G54">
         <v>0.9042767227207378</v>
       </c>
       <c r="H54">
-        <v>0.883911941968998</v>
+        <v>0.8839746735876497</v>
       </c>
       <c r="I54">
         <v>0.9767649687220733</v>
@@ -2720,25 +2720,25 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9079801450935472</v>
+      </c>
+      <c r="C55">
+        <v>0.8531296572280178</v>
+      </c>
+      <c r="D55">
         <v>0.8656354929267353</v>
       </c>
-      <c r="C55">
+      <c r="E55">
         <v>0.8384881375468255</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <v>0.8670701022913692</v>
-      </c>
-      <c r="E55">
-        <v>0.8531296572280178</v>
-      </c>
-      <c r="F55">
-        <v>0.9079801450935472</v>
       </c>
       <c r="G55">
         <v>0.9037509968502917</v>
       </c>
       <c r="H55">
-        <v>0.8724696159219376</v>
+        <v>0.8727545467811777</v>
       </c>
       <c r="I55">
         <v>0.9647296811269164</v>
@@ -2752,25 +2752,25 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9242713503881889</v>
+      </c>
+      <c r="C56">
+        <v>0.8469448584202682</v>
+      </c>
+      <c r="D56">
         <v>0.8743876259151209</v>
       </c>
-      <c r="C56">
+      <c r="E56">
         <v>0.8523676880222841</v>
       </c>
-      <c r="D56">
+      <c r="F56">
         <v>0.866710659827945</v>
-      </c>
-      <c r="E56">
-        <v>0.8469448584202682</v>
-      </c>
-      <c r="F56">
-        <v>0.9242713503881889</v>
       </c>
       <c r="G56">
         <v>0.9143571630371704</v>
       </c>
       <c r="H56">
-        <v>0.8796752685954984</v>
+        <v>0.8798975730698537</v>
       </c>
       <c r="I56">
         <v>0.9670651205963146</v>
@@ -2784,25 +2784,25 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.9536718849433626</v>
+      </c>
+      <c r="C57">
+        <v>0.8766020864381519</v>
+      </c>
+      <c r="D57">
         <v>0.902075191280894</v>
       </c>
-      <c r="C57">
+      <c r="E57">
         <v>0.8949188358467006</v>
       </c>
-      <c r="D57">
+      <c r="F57">
         <v>0.8973457921463985</v>
-      </c>
-      <c r="E57">
-        <v>0.8766020864381519</v>
-      </c>
-      <c r="F57">
-        <v>0.9536718849433626</v>
       </c>
       <c r="G57">
         <v>0.9424978644149321</v>
       </c>
       <c r="H57">
-        <v>0.9110583932222606</v>
+        <v>0.9112247929435301</v>
       </c>
       <c r="I57">
         <v>0.9818881721848689</v>
@@ -2816,25 +2816,25 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.955453735522464</v>
+      </c>
+      <c r="C58">
+        <v>0.8956780923994038</v>
+      </c>
+      <c r="D58">
         <v>0.9000385314030935</v>
       </c>
-      <c r="C58">
+      <c r="E58">
         <v>0.8840169051964269</v>
       </c>
-      <c r="D58">
+      <c r="F58">
         <v>0.8886065247595655</v>
-      </c>
-      <c r="E58">
-        <v>0.8956780923994038</v>
-      </c>
-      <c r="F58">
-        <v>0.955453735522464</v>
       </c>
       <c r="G58">
         <v>0.9474384403895109</v>
       </c>
       <c r="H58">
-        <v>0.9116735950786243</v>
+        <v>0.912008977035236</v>
       </c>
       <c r="I58">
         <v>0.9823829021329928</v>
@@ -2848,25 +2848,25 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9709812905689195</v>
+      </c>
+      <c r="C59">
+        <v>0.8993666169895678</v>
+      </c>
+      <c r="D59">
         <v>0.9128639841470799</v>
       </c>
-      <c r="C59">
+      <c r="E59">
         <v>0.8964076457592931</v>
       </c>
-      <c r="D59">
+      <c r="F59">
         <v>0.8993617944919802</v>
-      </c>
-      <c r="E59">
-        <v>0.8993666169895678</v>
-      </c>
-      <c r="F59">
-        <v>0.9709812905689195</v>
       </c>
       <c r="G59">
         <v>0.9602480124279664</v>
       </c>
       <c r="H59">
-        <v>0.9230191999730251</v>
+        <v>0.9233245813612856</v>
       </c>
       <c r="I59">
         <v>0.9863752942857905</v>
@@ -2880,25 +2880,25 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.9655084637902507</v>
+      </c>
+      <c r="C60">
+        <v>0.8858420268256334</v>
+      </c>
+      <c r="D60">
         <v>0.9093411130071007</v>
       </c>
-      <c r="C60">
+      <c r="E60">
         <v>0.883872826817789</v>
       </c>
-      <c r="D60">
+      <c r="F60">
         <v>0.8879317791717923</v>
-      </c>
-      <c r="E60">
-        <v>0.8858420268256334</v>
-      </c>
-      <c r="F60">
-        <v>0.9655084637902509</v>
       </c>
       <c r="G60">
         <v>0.9546411434743372</v>
       </c>
       <c r="H60">
-        <v>0.9143437329584635</v>
+        <v>0.9146344157124185</v>
       </c>
       <c r="I60">
         <v>0.9822462624330348</v>
@@ -2912,25 +2912,25 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.9922362224767723</v>
+      </c>
+      <c r="C61">
+        <v>0.906929955290611</v>
+      </c>
+      <c r="D61">
         <v>0.9260197060604393</v>
       </c>
-      <c r="C61">
+      <c r="E61">
         <v>0.9008260493708578</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <v>0.9056354913080835</v>
-      </c>
-      <c r="E61">
-        <v>0.906929955290611</v>
-      </c>
-      <c r="F61">
-        <v>0.9922362224767723</v>
       </c>
       <c r="G61">
         <v>0.9874886158338896</v>
       </c>
       <c r="H61">
-        <v>0.9362916754333643</v>
+        <v>0.9366532775450448</v>
       </c>
       <c r="I61">
         <v>0.9912911823417532</v>
@@ -2944,25 +2944,25 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>1.001272750413644</v>
+      </c>
+      <c r="C62">
+        <v>0.947354694485842</v>
+      </c>
+      <c r="D62">
         <v>0.9351021082181978</v>
       </c>
-      <c r="C62">
+      <c r="E62">
         <v>0.913937181826914</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <v>0.922055420777376</v>
-      </c>
-      <c r="E62">
-        <v>0.947354694485842</v>
-      </c>
-      <c r="F62">
-        <v>1.001272750413644</v>
       </c>
       <c r="G62">
         <v>0.994272888675201</v>
       </c>
       <c r="H62">
-        <v>0.9520543787757594</v>
+        <v>0.9525523195500313</v>
       </c>
       <c r="I62">
         <v>0.9936391863812625</v>
@@ -2976,25 +2976,25 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.9826905943744432</v>
+      </c>
+      <c r="C63">
+        <v>0.9347988077496273</v>
+      </c>
+      <c r="D63">
         <v>0.93009302581604</v>
       </c>
-      <c r="C63">
+      <c r="E63">
         <v>0.9183075593122659</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <v>0.9306190483913613</v>
-      </c>
-      <c r="E63">
-        <v>0.9347988077496273</v>
-      </c>
-      <c r="F63">
-        <v>0.9826905943744432</v>
       </c>
       <c r="G63">
         <v>0.9775926184681186</v>
       </c>
       <c r="H63">
-        <v>0.9454687758540978</v>
+        <v>0.9458142199390767</v>
       </c>
       <c r="I63">
         <v>0.9962290583954103</v>
@@ -3008,25 +3008,25 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.9717449408171058</v>
+      </c>
+      <c r="C64">
+        <v>0.8970566318926975</v>
+      </c>
+      <c r="D64">
         <v>0.9278912313535531</v>
       </c>
-      <c r="C64">
+      <c r="E64">
         <v>0.911391797137643</v>
       </c>
-      <c r="D64">
+      <c r="F64">
         <v>0.9187309444282503</v>
-      </c>
-      <c r="E64">
-        <v>0.8970566318926975</v>
-      </c>
-      <c r="F64">
-        <v>0.9717449408171057</v>
       </c>
       <c r="G64">
         <v>0.9617269750193843</v>
       </c>
       <c r="H64">
-        <v>0.9313059310494806</v>
+        <v>0.9314535237705737</v>
       </c>
       <c r="I64">
         <v>0.9970112028848254</v>
@@ -3040,25 +3040,25 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9900725467735777</v>
+      </c>
+      <c r="C65">
+        <v>0.9143442622950819</v>
+      </c>
+      <c r="D65">
         <v>0.9339461661253923</v>
       </c>
-      <c r="C65">
+      <c r="E65">
         <v>0.9065411583901642</v>
       </c>
-      <c r="D65">
+      <c r="F65">
         <v>0.9194539763556382</v>
-      </c>
-      <c r="E65">
-        <v>0.9143442622950819</v>
-      </c>
-      <c r="F65">
-        <v>0.9900725467735778</v>
       </c>
       <c r="G65">
         <v>0.9754250328595007</v>
       </c>
       <c r="H65">
-        <v>0.9397666551844714</v>
+        <v>0.9400863026072369</v>
       </c>
       <c r="I65">
         <v>0.9983728881706143</v>
@@ -3072,25 +3072,25 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9788723431335116</v>
+      </c>
+      <c r="C66">
+        <v>0.8903129657228018</v>
+      </c>
+      <c r="D66">
         <v>0.9230472835360819</v>
       </c>
-      <c r="C66">
+      <c r="E66">
         <v>0.8905964844875613</v>
       </c>
-      <c r="D66">
+      <c r="F66">
         <v>0.9024750955636354</v>
-      </c>
-      <c r="E66">
-        <v>0.8903129657228018</v>
-      </c>
-      <c r="F66">
-        <v>0.9788723431335116</v>
       </c>
       <c r="G66">
         <v>0.9662389050675612</v>
       </c>
       <c r="H66">
-        <v>0.9250728266294584</v>
+        <v>0.9253505343336219</v>
       </c>
       <c r="I66">
         <v>0.9949945893819959</v>
@@ -3104,25 +3104,25 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9441262568410335</v>
+      </c>
+      <c r="C67">
+        <v>0.8872578241430701</v>
+      </c>
+      <c r="D67">
         <v>0.9037815819893212</v>
       </c>
-      <c r="C67">
+      <c r="E67">
         <v>0.8604841033522237</v>
       </c>
-      <c r="D67">
+      <c r="F67">
         <v>0.8845985083215226</v>
-      </c>
-      <c r="E67">
-        <v>0.8872578241430701</v>
-      </c>
-      <c r="F67">
-        <v>0.9441262568410335</v>
       </c>
       <c r="G67">
         <v>0.9311856122404767</v>
       </c>
       <c r="H67">
-        <v>0.9017079197631697</v>
+        <v>0.9020435117413825</v>
       </c>
       <c r="I67">
         <v>0.9779036328883906</v>
@@ -3136,25 +3136,25 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9574901361842942</v>
+      </c>
+      <c r="C68">
+        <v>0.8989195230998509</v>
+      </c>
+      <c r="D68">
         <v>0.9082952606374195</v>
       </c>
-      <c r="C68">
+      <c r="E68">
         <v>0.8655748727307656</v>
       </c>
-      <c r="D68">
+      <c r="F68">
         <v>0.8888127903697305</v>
-      </c>
-      <c r="E68">
-        <v>0.8989195230998509</v>
-      </c>
-      <c r="F68">
-        <v>0.9574901361842942</v>
       </c>
       <c r="G68">
         <v>0.9442514465759531</v>
       </c>
       <c r="H68">
-        <v>0.9103211155505132</v>
+        <v>0.9107338131800931</v>
       </c>
       <c r="I68">
         <v>0.9752902023052845</v>
@@ -3168,25 +3168,25 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9670357642866233</v>
+      </c>
+      <c r="C69">
+        <v>0.9118852459016392</v>
+      </c>
+      <c r="D69">
         <v>0.9174877525183025</v>
       </c>
-      <c r="C69">
+      <c r="E69">
         <v>0.9065411583901642</v>
       </c>
-      <c r="D69">
+      <c r="F69">
         <v>0.9093637162930635</v>
-      </c>
-      <c r="E69">
-        <v>0.9118852459016392</v>
-      </c>
-      <c r="F69">
-        <v>0.9670357642866233</v>
       </c>
       <c r="G69">
         <v>0.9553742373885237</v>
       </c>
       <c r="H69">
-        <v>0.9277886438929646</v>
+        <v>0.9280631043893636</v>
       </c>
       <c r="I69">
         <v>0.9858805643376666</v>
@@ -3200,25 +3200,25 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.9658902889143439</v>
+      </c>
+      <c r="C70">
+        <v>0.9050670640834574</v>
+      </c>
+      <c r="D70">
         <v>0.9100016513458469</v>
       </c>
-      <c r="C70">
+      <c r="E70">
         <v>0.9049082700989339</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <v>0.9070130700706168</v>
-      </c>
-      <c r="E70">
-        <v>0.9050670640834574</v>
-      </c>
-      <c r="F70">
-        <v>0.9658902889143439</v>
       </c>
       <c r="G70">
         <v>0.9550861757688452</v>
       </c>
       <c r="H70">
-        <v>0.9244890254537612</v>
+        <v>0.9247692626115265</v>
       </c>
       <c r="I70">
         <v>0.9857627714928752</v>
@@ -3232,25 +3232,25 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.964235713376607</v>
+      </c>
+      <c r="C71">
+        <v>0.9268256333830104</v>
+      </c>
+      <c r="D71">
         <v>0.9101667859305334</v>
       </c>
-      <c r="C71">
+      <c r="E71">
         <v>0.8990010565747767</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <v>0.9331558091380182</v>
-      </c>
-      <c r="E71">
-        <v>0.9268256333830104</v>
-      </c>
-      <c r="F71">
-        <v>0.964235713376607</v>
       </c>
       <c r="G71">
         <v>0.9529648909371116</v>
       </c>
       <c r="H71">
-        <v>0.930793570953636</v>
+        <v>0.9312030384749075</v>
       </c>
       <c r="I71">
         <v>0.9956777878817863</v>
@@ -3264,25 +3264,25 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>0.9862542955326461</v>
+      </c>
+      <c r="C72">
+        <v>0.9380402384500744</v>
+      </c>
+      <c r="D72">
         <v>0.9470468431771893</v>
       </c>
-      <c r="C72">
+      <c r="E72">
         <v>0.9587455575833254</v>
       </c>
-      <c r="D72">
+      <c r="F72">
         <v>0.9901387663838845</v>
-      </c>
-      <c r="E72">
-        <v>0.9380402384500744</v>
-      </c>
-      <c r="F72">
-        <v>0.9862542955326461</v>
       </c>
       <c r="G72">
         <v>0.9790284378573629</v>
       </c>
       <c r="H72">
-        <v>0.9664058949362423</v>
+        <v>0.9664984056023533</v>
       </c>
       <c r="I72">
         <v>1.009132871899496</v>
@@ -3296,25 +3296,25 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.9973272241313479</v>
+      </c>
+      <c r="C73">
+        <v>0.9503353204172875</v>
+      </c>
+      <c r="D73">
         <v>0.942147850498156</v>
       </c>
-      <c r="C73">
+      <c r="E73">
         <v>0.9505330900009606</v>
       </c>
-      <c r="D73">
+      <c r="F73">
         <v>0.9833482079172127</v>
-      </c>
-      <c r="E73">
-        <v>0.9503353204172875</v>
-      </c>
-      <c r="F73">
-        <v>0.9973272241313479</v>
       </c>
       <c r="G73">
         <v>0.9883637834119344</v>
       </c>
       <c r="H73">
-        <v>0.9684525583046839</v>
+        <v>0.9687274663249317</v>
       </c>
       <c r="I73">
         <v>1.009648019274051</v>
@@ -3328,25 +3328,25 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>1.013363879343261</v>
+      </c>
+      <c r="C74">
+        <v>0.9720566318926974</v>
+      </c>
+      <c r="D74">
         <v>0.9496889965321738</v>
       </c>
-      <c r="C74">
+      <c r="E74">
         <v>0.9491403323407934</v>
       </c>
-      <c r="D74">
+      <c r="F74">
         <v>0.9679485716639767</v>
-      </c>
-      <c r="E74">
-        <v>0.9720566318926974</v>
-      </c>
-      <c r="F74">
-        <v>1.013363879343261</v>
       </c>
       <c r="G74">
         <v>1.008604377327935</v>
       </c>
       <c r="H74">
-        <v>0.976526606846003</v>
+        <v>0.976959562757818</v>
       </c>
       <c r="I74">
         <v>1.008347586267553</v>
@@ -3360,25 +3360,25 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>1.014000254550083</v>
+      </c>
+      <c r="C75">
+        <v>0.9710134128166914</v>
+      </c>
+      <c r="D75">
         <v>0.9561842901965102</v>
       </c>
-      <c r="C75">
+      <c r="E75">
         <v>0.9515416386514265</v>
       </c>
-      <c r="D75">
+      <c r="F75">
         <v>0.9633439353149903</v>
-      </c>
-      <c r="E75">
-        <v>0.9710134128166914</v>
-      </c>
-      <c r="F75">
-        <v>1.014000254550083</v>
       </c>
       <c r="G75">
         <v>1.010167593505994</v>
       </c>
       <c r="H75">
-        <v>0.9774700652751295</v>
+        <v>0.9778565039677236</v>
       </c>
       <c r="I75">
         <v>1.012306996423809</v>
@@ -3392,25 +3392,25 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>1.05307369224895</v>
+      </c>
+      <c r="C76">
+        <v>0.9826751117734724</v>
+      </c>
+      <c r="D76">
         <v>0.9633401221995926</v>
       </c>
-      <c r="C76">
+      <c r="E76">
         <v>0.9658053981365864</v>
       </c>
-      <c r="D76">
+      <c r="F76">
         <v>0.9602141415745229</v>
-      </c>
-      <c r="E76">
-        <v>0.9826751117734724</v>
-      </c>
-      <c r="F76">
-        <v>1.05307369224895</v>
       </c>
       <c r="G76">
         <v>1.044858824645509</v>
       </c>
       <c r="H76">
-        <v>0.9946903305471555</v>
+        <v>0.9952233469655867</v>
       </c>
       <c r="I76">
         <v>1.015022514139068</v>
@@ -3424,25 +3424,25 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>1.049000890925289</v>
+      </c>
+      <c r="C77">
+        <v>0.96602086438152</v>
+      </c>
+      <c r="D77">
         <v>0.9595970716133649</v>
       </c>
-      <c r="C77">
+      <c r="E77">
         <v>0.9528863701853809</v>
       </c>
-      <c r="D77">
+      <c r="F77">
         <v>0.956644908776892</v>
-      </c>
-      <c r="E77">
-        <v>0.96602086438152</v>
-      </c>
-      <c r="F77">
-        <v>1.049000890925289</v>
       </c>
       <c r="G77">
         <v>1.042354788788641</v>
       </c>
       <c r="H77">
-        <v>0.9874357248297233</v>
+        <v>0.9879484163972636</v>
       </c>
       <c r="I77">
         <v>1.011864095327393</v>
@@ -3456,25 +3456,25 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>1.07483772432226</v>
+      </c>
+      <c r="C78">
+        <v>0.9794336810730253</v>
+      </c>
+      <c r="D78">
         <v>0.9641107502614631</v>
       </c>
-      <c r="C78">
+      <c r="E78">
         <v>0.9460186341369706</v>
       </c>
-      <c r="D78">
+      <c r="F78">
         <v>0.946512427958825</v>
-      </c>
-      <c r="E78">
-        <v>0.9794336810730253</v>
-      </c>
-      <c r="F78">
-        <v>1.07483772432226</v>
       </c>
       <c r="G78">
         <v>1.069465711495501</v>
       </c>
       <c r="H78">
-        <v>0.9963131702479198</v>
+        <v>0.997033880352904</v>
       </c>
       <c r="I78">
         <v>1.012434212696184</v>
@@ -3488,25 +3488,25 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>1.083619702176403</v>
+      </c>
+      <c r="C79">
+        <v>1.002272727272727</v>
+      </c>
+      <c r="D79">
         <v>0.9692849672483074</v>
       </c>
-      <c r="C79">
+      <c r="E79">
         <v>0.9720487945442321</v>
       </c>
-      <c r="D79">
+      <c r="F79">
         <v>0.9559711761059172</v>
-      </c>
-      <c r="E79">
-        <v>1.002272727272727</v>
-      </c>
-      <c r="F79">
-        <v>1.083619702176403</v>
       </c>
       <c r="G79">
         <v>1.074733801575522</v>
       </c>
       <c r="H79">
-        <v>1.009265311681276</v>
+        <v>1.009988105019559</v>
       </c>
       <c r="I79">
         <v>1.019259915409032</v>
@@ -3520,25 +3520,25 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.083619702176403</v>
+      </c>
+      <c r="C80">
+        <v>1.002496274217586</v>
+      </c>
+      <c r="D80">
         <v>0.9702757747564265</v>
       </c>
-      <c r="C80">
+      <c r="E80">
         <v>0.9715685332821056</v>
       </c>
-      <c r="D80">
+      <c r="F80">
         <v>0.9478260618797069</v>
-      </c>
-      <c r="E80">
-        <v>1.002496274217586</v>
-      </c>
-      <c r="F80">
-        <v>1.083619702176403</v>
       </c>
       <c r="G80">
         <v>1.071329027976776</v>
       </c>
       <c r="H80">
-        <v>1.007483258297878</v>
+        <v>1.008204616639656</v>
       </c>
       <c r="I80">
         <v>1.019603870515823</v>
@@ -3552,25 +3552,25 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.088583428789614</v>
+      </c>
+      <c r="C81">
+        <v>0.9933681073025334</v>
+      </c>
+      <c r="D81">
         <v>0.9739637804810921</v>
       </c>
-      <c r="C81">
+      <c r="E81">
         <v>0.9920756891749113</v>
       </c>
-      <c r="D81">
+      <c r="F81">
         <v>0.9451254231117322</v>
-      </c>
-      <c r="E81">
-        <v>0.9933681073025334</v>
-      </c>
-      <c r="F81">
-        <v>1.088583428789614</v>
       </c>
       <c r="G81">
         <v>1.079376165600388</v>
       </c>
       <c r="H81">
-        <v>1.011791475434225</v>
+        <v>1.012371035766406</v>
       </c>
       <c r="I81">
         <v>1.018626975189686</v>
@@ -3584,25 +3584,25 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>1.055619193076238</v>
+      </c>
+      <c r="C82">
+        <v>0.9628912071535022</v>
+      </c>
+      <c r="D82">
         <v>0.9494688170859251</v>
       </c>
-      <c r="C82">
+      <c r="E82">
         <v>0.9846316396119489</v>
       </c>
-      <c r="D82">
+      <c r="F82">
         <v>0.9395269962168035</v>
-      </c>
-      <c r="E82">
-        <v>0.9628912071535022</v>
-      </c>
-      <c r="F82">
-        <v>1.055619193076238</v>
       </c>
       <c r="G82">
         <v>1.054924013669712</v>
       </c>
       <c r="H82">
-        <v>0.9909357103078208</v>
+        <v>0.9913577600254802</v>
       </c>
       <c r="I82">
         <v>1.01919866312974</v>
@@ -3616,25 +3616,25 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>1.015145729922362</v>
+      </c>
+      <c r="C83">
+        <v>0.9475782414307004</v>
+      </c>
+      <c r="D83">
         <v>0.9160015412561237</v>
       </c>
-      <c r="C83">
+      <c r="E83">
         <v>0.9554317548746519</v>
       </c>
-      <c r="D83">
+      <c r="F83">
         <v>0.9148904286786633</v>
-      </c>
-      <c r="E83">
-        <v>0.9475782414307004</v>
-      </c>
-      <c r="F83">
-        <v>1.015145729922362</v>
       </c>
       <c r="G83">
         <v>1.013553376941366</v>
       </c>
       <c r="H83">
-        <v>0.9601863435427921</v>
+        <v>0.9606427969189034</v>
       </c>
       <c r="I83">
         <v>1.012145227583629</v>
@@ -3648,25 +3648,25 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>1.025964108438335</v>
+      </c>
+      <c r="C84">
+        <v>0.93301043219076</v>
+      </c>
+      <c r="D84">
         <v>0.9165519898717455</v>
       </c>
-      <c r="C84">
+      <c r="E84">
         <v>0.9644126404764194</v>
       </c>
-      <c r="D84">
+      <c r="F84">
         <v>0.9261477953097257</v>
-      </c>
-      <c r="E84">
-        <v>0.93301043219076</v>
-      </c>
-      <c r="F84">
-        <v>1.025964108438335</v>
       </c>
       <c r="G84">
         <v>1.024569611646137</v>
       </c>
       <c r="H84">
-        <v>0.9648631585107061</v>
+        <v>0.9652532080621108</v>
       </c>
       <c r="I84">
         <v>1.017100379921189</v>
@@ -3680,25 +3680,25 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>1.044546264477536</v>
+      </c>
+      <c r="C85">
+        <v>0.9653129657228017</v>
+      </c>
+      <c r="D85">
         <v>0.9294875323388563</v>
       </c>
-      <c r="C85">
+      <c r="E85">
         <v>0.9444817980981655</v>
       </c>
-      <c r="D85">
+      <c r="F85">
         <v>0.9211163754052218</v>
-      </c>
-      <c r="E85">
-        <v>0.9653129657228017</v>
-      </c>
-      <c r="F85">
-        <v>1.044546264477536</v>
       </c>
       <c r="G85">
         <v>1.045649903738858</v>
       </c>
       <c r="H85">
-        <v>0.9747179952161227</v>
+        <v>0.9753974447149393</v>
       </c>
       <c r="I85">
         <v>1.013967090249737</v>
@@ -3712,25 +3712,25 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>1.068983072419498</v>
+      </c>
+      <c r="C86">
+        <v>0.9804769001490313</v>
+      </c>
+      <c r="D86">
         <v>0.9342764352947652</v>
       </c>
-      <c r="C86">
+      <c r="E86">
         <v>0.9481798098165403</v>
       </c>
-      <c r="D86">
+      <c r="F86">
         <v>0.9481265168354578</v>
-      </c>
-      <c r="E86">
-        <v>0.9804769001490313</v>
-      </c>
-      <c r="F86">
-        <v>1.068983072419498</v>
       </c>
       <c r="G86">
         <v>1.071341379666085</v>
       </c>
       <c r="H86">
-        <v>0.9913906600654838</v>
+        <v>0.99222567870277</v>
       </c>
       <c r="I86">
         <v>1.022763859898761</v>
@@ -3744,25 +3744,25 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>1.074964999363625</v>
+      </c>
+      <c r="C87">
+        <v>0.9859165424739195</v>
+      </c>
+      <c r="D87">
         <v>0.9261297957835637</v>
       </c>
-      <c r="C87">
+      <c r="E87">
         <v>0.9260877917587168</v>
       </c>
-      <c r="D87">
+      <c r="F87">
         <v>0.9188219520234223</v>
-      </c>
-      <c r="E87">
-        <v>0.9859165424739195</v>
-      </c>
-      <c r="F87">
-        <v>1.074964999363625</v>
       </c>
       <c r="G87">
         <v>1.077842327249784</v>
       </c>
       <c r="H87">
-        <v>0.9843720503654617</v>
+        <v>0.9854153701369379</v>
       </c>
       <c r="I87">
         <v>1.011295548529867</v>
@@ -3776,25 +3776,25 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>1.082092401680031</v>
+      </c>
+      <c r="C88">
+        <v>1.004470938897168</v>
+      </c>
+      <c r="D88">
         <v>0.9461661253921947</v>
       </c>
-      <c r="C88">
+      <c r="E88">
         <v>0.9557679377581405</v>
       </c>
-      <c r="D88">
+      <c r="F88">
         <v>0.941196581017322</v>
-      </c>
-      <c r="E88">
-        <v>1.004470938897168</v>
-      </c>
-      <c r="F88">
-        <v>1.08209240168003</v>
       </c>
       <c r="G88">
         <v>1.086755558723679</v>
       </c>
       <c r="H88">
-        <v>1.00222384498806</v>
+        <v>1.003146991375194</v>
       </c>
       <c r="I88">
         <v>1.024923395386604</v>
@@ -3808,25 +3808,25 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.11136566119384</v>
+      </c>
+      <c r="C89">
+        <v>1.023919523099851</v>
+      </c>
+      <c r="D89">
         <v>0.9626245389992844</v>
       </c>
-      <c r="C89">
+      <c r="E89">
         <v>1.002449332436846</v>
       </c>
-      <c r="D89">
+      <c r="F89">
         <v>0.9729653698165786</v>
-      </c>
-      <c r="E89">
-        <v>1.023919523099851</v>
-      </c>
-      <c r="F89">
-        <v>1.11136566119384</v>
       </c>
       <c r="G89">
         <v>1.111668259092131</v>
       </c>
       <c r="H89">
-        <v>1.030349162322538</v>
+        <v>1.031200218886826</v>
       </c>
       <c r="I89">
         <v>1.033143765381782</v>
@@ -3840,25 +3840,25 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.104492808960163</v>
+      </c>
+      <c r="C90">
+        <v>1.02876304023845</v>
+      </c>
+      <c r="D90">
         <v>0.9574503220124402</v>
       </c>
-      <c r="C90">
+      <c r="E90">
         <v>1.003361828834886</v>
       </c>
-      <c r="D90">
+      <c r="F90">
         <v>0.9718008968317666</v>
-      </c>
-      <c r="E90">
-        <v>1.02876304023845</v>
-      </c>
-      <c r="F90">
-        <v>1.104492808960163</v>
       </c>
       <c r="G90">
         <v>1.1068005240322</v>
       </c>
       <c r="H90">
-        <v>1.028294515204371</v>
+        <v>1.029156733696127</v>
       </c>
       <c r="I90">
         <v>1.036514211314081</v>
@@ -3872,25 +3872,25 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>1.094310805651012</v>
+      </c>
+      <c r="C91">
+        <v>1.01795827123696</v>
+      </c>
+      <c r="D91">
         <v>0.9614685969064788</v>
       </c>
-      <c r="C91">
+      <c r="E91">
         <v>1.040149841513784</v>
       </c>
-      <c r="D91">
+      <c r="F91">
         <v>0.9950432856885475</v>
-      </c>
-      <c r="E91">
-        <v>1.01795827123696</v>
-      </c>
-      <c r="F91">
-        <v>1.094310805651012</v>
       </c>
       <c r="G91">
         <v>1.096222875766809</v>
       </c>
       <c r="H91">
-        <v>1.033858448858094</v>
+        <v>1.034411702050432</v>
       </c>
       <c r="I91">
         <v>1.034125372421711</v>
@@ -3904,25 +3904,25 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.10818378515973</v>
+      </c>
+      <c r="C92">
+        <v>1.040238450074515</v>
+      </c>
+      <c r="D92">
         <v>0.9660373204161391</v>
       </c>
-      <c r="C92">
+      <c r="E92">
         <v>1.044616271251561</v>
       </c>
-      <c r="D92">
+      <c r="F92">
         <v>0.9874265207810666</v>
-      </c>
-      <c r="E92">
-        <v>1.040238450074515</v>
-      </c>
-      <c r="F92">
-        <v>1.10818378515973</v>
       </c>
       <c r="G92">
         <v>1.107736903156596</v>
       </c>
       <c r="H92">
-        <v>1.042002744346874</v>
+        <v>1.042691587564707</v>
       </c>
       <c r="I92">
         <v>1.028521574152166</v>
@@ -3936,25 +3936,25 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>1.113911162021128</v>
+      </c>
+      <c r="C93">
+        <v>1.041207153502235</v>
+      </c>
+      <c r="D93">
         <v>0.9549182583805801</v>
       </c>
-      <c r="C93">
+      <c r="E93">
         <v>1.040437998271059</v>
       </c>
-      <c r="D93">
+      <c r="F93">
         <v>0.9840533410089387</v>
-      </c>
-      <c r="E93">
-        <v>1.041207153502235</v>
-      </c>
-      <c r="F93">
-        <v>1.113911162021128</v>
       </c>
       <c r="G93">
         <v>1.112781259462513</v>
       </c>
       <c r="H93">
-        <v>1.040782794769923</v>
+        <v>1.041581605064282</v>
       </c>
       <c r="I93">
         <v>1.025246933066964</v>
@@ -3968,25 +3968,25 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.11022018582156</v>
+      </c>
+      <c r="C94">
+        <v>1.068405365126676</v>
+      </c>
+      <c r="D94">
         <v>0.96251444927616</v>
       </c>
-      <c r="C94">
+      <c r="E94">
         <v>1.046825473057343</v>
       </c>
-      <c r="D94">
+      <c r="F94">
         <v>0.9663363179542493</v>
-      </c>
-      <c r="E94">
-        <v>1.068405365126676</v>
-      </c>
-      <c r="F94">
-        <v>1.11022018582156</v>
       </c>
       <c r="G94">
         <v>1.107954944353198</v>
       </c>
       <c r="H94">
-        <v>1.043319060983884</v>
+        <v>1.044165489126957</v>
       </c>
       <c r="I94">
         <v>1.027800681942043</v>
@@ -4000,25 +4000,25 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.13834796996309</v>
+      </c>
+      <c r="C95">
+        <v>1.102906110283159</v>
+      </c>
+      <c r="D95">
         <v>0.9911928221500523</v>
       </c>
-      <c r="C95">
+      <c r="E95">
         <v>1.060320814523101</v>
       </c>
-      <c r="D95">
+      <c r="F95">
         <v>0.9761983142371308</v>
-      </c>
-      <c r="E95">
-        <v>1.102906110283159</v>
-      </c>
-      <c r="F95">
-        <v>1.13834796996309</v>
       </c>
       <c r="G95">
         <v>1.136299704856539</v>
       </c>
       <c r="H95">
-        <v>1.067126414625523</v>
+        <v>1.068075116843388</v>
       </c>
       <c r="I95">
         <v>1.0396663478407</v>
@@ -4032,25 +4032,25 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.134529718722159</v>
+      </c>
+      <c r="C96">
+        <v>1.0924739195231</v>
+      </c>
+      <c r="D96">
         <v>0.985027797655089</v>
       </c>
-      <c r="C96">
+      <c r="E96">
         <v>1.051195850542695</v>
       </c>
-      <c r="D96">
+      <c r="F96">
         <v>0.9814842265080732</v>
-      </c>
-      <c r="E96">
-        <v>1.0924739195231</v>
-      </c>
-      <c r="F96">
-        <v>1.134529718722159</v>
       </c>
       <c r="G96">
         <v>1.132871373273922</v>
       </c>
       <c r="H96">
-        <v>1.06248229446812</v>
+        <v>1.063436194418358</v>
       </c>
       <c r="I96">
         <v>1.041007615700059</v>
@@ -4064,25 +4064,25 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.156166475754105</v>
+      </c>
+      <c r="C97">
+        <v>1.099478390461997</v>
+      </c>
+      <c r="D97">
         <v>0.9947707381515936</v>
       </c>
-      <c r="C97">
+      <c r="E97">
         <v>1.054605705503794</v>
       </c>
-      <c r="D97">
+      <c r="F97">
         <v>0.9825158286422675</v>
-      </c>
-      <c r="E97">
-        <v>1.099478390461997</v>
-      </c>
-      <c r="F97">
-        <v>1.156166475754105</v>
       </c>
       <c r="G97">
         <v>1.155144915601485</v>
       </c>
       <c r="H97">
-        <v>1.073289421147292</v>
+        <v>1.074320763260095</v>
       </c>
       <c r="I97">
         <v>1.049991283329486</v>
@@ -4096,25 +4096,25 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.130329642357134</v>
+      </c>
+      <c r="C98">
+        <v>1.099850968703428</v>
+      </c>
+      <c r="D98">
         <v>0.9871195023944515</v>
       </c>
-      <c r="C98">
+      <c r="E98">
         <v>1.100230525405821</v>
       </c>
-      <c r="D98">
+      <c r="F98">
         <v>0.994532847122148</v>
-      </c>
-      <c r="E98">
-        <v>1.099850968703428</v>
-      </c>
-      <c r="F98">
-        <v>1.130329642357134</v>
       </c>
       <c r="G98">
         <v>1.132868212259588</v>
       </c>
       <c r="H98">
-        <v>1.073850480349025</v>
+        <v>1.074564633265327</v>
       </c>
       <c r="I98">
         <v>1.047283618470546</v>
@@ -4128,25 +4128,25 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.142929871452208</v>
+      </c>
+      <c r="C99">
+        <v>1.103725782414307</v>
+      </c>
+      <c r="D99">
         <v>0.9958165905212748</v>
       </c>
-      <c r="C99">
+      <c r="E99">
         <v>1.15565267505523</v>
       </c>
-      <c r="D99">
+      <c r="F99">
         <v>0.999895026069678</v>
-      </c>
-      <c r="E99">
-        <v>1.103725782414307</v>
-      </c>
-      <c r="F99">
-        <v>1.142929871452208</v>
       </c>
       <c r="G99">
         <v>1.144729025967347</v>
       </c>
       <c r="H99">
-        <v>1.09031092662209</v>
+        <v>1.09078685856354</v>
       </c>
       <c r="I99">
         <v>1.0568358328975</v>
@@ -4160,25 +4160,25 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.1676212294769</v>
+      </c>
+      <c r="C100">
+        <v>1.112220566318927</v>
+      </c>
+      <c r="D100">
         <v>1.000165134584686</v>
       </c>
-      <c r="C100">
+      <c r="E100">
         <v>1.144894822783594</v>
       </c>
-      <c r="D100">
+      <c r="F100">
         <v>1.008173285229875</v>
-      </c>
-      <c r="E100">
-        <v>1.112220566318927</v>
-      </c>
-      <c r="F100">
-        <v>1.1676212294769</v>
       </c>
       <c r="G100">
         <v>1.169087836825124</v>
       </c>
       <c r="H100">
-        <v>1.100082174197994</v>
+        <v>1.100756083390132</v>
       </c>
       <c r="I100">
         <v>1.058527338148705</v>
@@ -4192,25 +4192,25 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.142038946162657</v>
+      </c>
+      <c r="C101">
+        <v>1.098211624441133</v>
+      </c>
+      <c r="D101">
         <v>0.9820003302691694</v>
       </c>
-      <c r="C101">
+      <c r="E101">
         <v>1.139131687638075</v>
       </c>
-      <c r="D101">
+      <c r="F101">
         <v>1.003808007078691</v>
-      </c>
-      <c r="E101">
-        <v>1.098211624441133</v>
-      </c>
-      <c r="F101">
-        <v>1.142038946162657</v>
       </c>
       <c r="G101">
         <v>1.137746169881654</v>
       </c>
       <c r="H101">
-        <v>1.083590226392314</v>
+        <v>1.084185819155797</v>
       </c>
       <c r="I101">
         <v>1.049366195966459</v>
@@ -4224,25 +4224,25 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.130838742522591</v>
+      </c>
+      <c r="C102">
+        <v>1.111251862891207</v>
+      </c>
+      <c r="D102">
         <v>0.9725876589420377</v>
       </c>
-      <c r="C102">
+      <c r="E102">
         <v>1.133560656997407</v>
       </c>
-      <c r="D102">
+      <c r="F102">
         <v>0.9921527309792012</v>
-      </c>
-      <c r="E102">
-        <v>1.111251862891207</v>
-      </c>
-      <c r="F102">
-        <v>1.130838742522591</v>
       </c>
       <c r="G102">
         <v>1.127042156714609</v>
       </c>
       <c r="H102">
-        <v>1.077657320072461</v>
+        <v>1.078337031519833</v>
       </c>
       <c r="I102">
         <v>1.047214513334935</v>
@@ -4256,25 +4256,25 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.144329896907216</v>
+      </c>
+      <c r="C103">
+        <v>1.132786885245902</v>
+      </c>
+      <c r="D103">
         <v>0.9779270105135686</v>
       </c>
-      <c r="C103">
+      <c r="E103">
         <v>1.162376332725003</v>
       </c>
-      <c r="D103">
+      <c r="F103">
         <v>1.005425504122434</v>
-      </c>
-      <c r="E103">
-        <v>1.132786885245902</v>
-      </c>
-      <c r="F103">
-        <v>1.144329896907217</v>
       </c>
       <c r="G103">
         <v>1.137652601793579</v>
       </c>
       <c r="H103">
-        <v>1.093183724881964</v>
+        <v>1.093867792076537</v>
       </c>
       <c r="I103">
         <v>1.051192770346358</v>
@@ -4288,25 +4288,25 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.145984472444953</v>
+      </c>
+      <c r="C104">
+        <v>1.155663189269746</v>
+      </c>
+      <c r="D104">
         <v>0.9835966312544724</v>
       </c>
-      <c r="C104">
+      <c r="E104">
         <v>1.137114590337144</v>
       </c>
-      <c r="D104">
+      <c r="F104">
         <v>1.003131676574046</v>
-      </c>
-      <c r="E104">
-        <v>1.155663189269746</v>
-      </c>
-      <c r="F104">
-        <v>1.145984472444953</v>
       </c>
       <c r="G104">
         <v>1.140630758844005</v>
       </c>
       <c r="H104">
-        <v>1.094013573697479</v>
+        <v>1.094918255898094</v>
       </c>
       <c r="I104">
         <v>1.055659475020849</v>
@@ -4320,25 +4320,25 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.134402443680794</v>
+      </c>
+      <c r="C105">
+        <v>1.08204172876304</v>
+      </c>
+      <c r="D105">
         <v>0.9782022348213794</v>
       </c>
-      <c r="C105">
+      <c r="E105">
         <v>1.128710018249928</v>
       </c>
-      <c r="D105">
+      <c r="F105">
         <v>1.018285150211927</v>
-      </c>
-      <c r="E105">
-        <v>1.08204172876304</v>
-      </c>
-      <c r="F105">
-        <v>1.134402443680794</v>
       </c>
       <c r="G105">
         <v>1.125395691320078</v>
       </c>
       <c r="H105">
-        <v>1.077595710328136</v>
+        <v>1.078143369924998</v>
       </c>
       <c r="I105">
         <v>1.049857784772055</v>
@@ -4352,25 +4352,25 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.139238895252641</v>
+      </c>
+      <c r="C106">
+        <v>1.080849478390462</v>
+      </c>
+      <c r="D106">
         <v>0.9823305994385424</v>
       </c>
-      <c r="C106">
+      <c r="E106">
         <v>1.127413312842186</v>
       </c>
-      <c r="D106">
+      <c r="F106">
         <v>1.022705280786912</v>
-      </c>
-      <c r="E106">
-        <v>1.080849478390462</v>
-      </c>
-      <c r="F106">
-        <v>1.139238895252641</v>
       </c>
       <c r="G106">
         <v>1.130488900603789</v>
       </c>
       <c r="H106">
-        <v>1.080248086668302</v>
+        <v>1.080799808975114</v>
       </c>
       <c r="I106">
         <v>1.051167641206136</v>
@@ -4384,25 +4384,25 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.149039073437699</v>
+      </c>
+      <c r="C107">
+        <v>1.095230998509687</v>
+      </c>
+      <c r="D107">
         <v>0.9964220839984588</v>
       </c>
-      <c r="C107">
+      <c r="E107">
         <v>1.169964460666603</v>
       </c>
-      <c r="D107">
+      <c r="F107">
         <v>1.046947680690444</v>
-      </c>
-      <c r="E107">
-        <v>1.095230998509687</v>
-      </c>
-      <c r="F107">
-        <v>1.149039073437699</v>
       </c>
       <c r="G107">
         <v>1.135662542052025</v>
       </c>
       <c r="H107">
-        <v>1.098720961216886</v>
+        <v>1.099110378853298</v>
       </c>
       <c r="I107">
         <v>1.062591976579641</v>
@@ -4416,25 +4416,25 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.139620720376734</v>
+      </c>
+      <c r="C108">
+        <v>1.065871833084948</v>
+      </c>
+      <c r="D108">
         <v>0.9917983156272362</v>
       </c>
-      <c r="C108">
+      <c r="E108">
         <v>1.182163096724618</v>
       </c>
-      <c r="D108">
+      <c r="F108">
         <v>1.068007853513355</v>
-      </c>
-      <c r="E108">
-        <v>1.065871833084948</v>
-      </c>
-      <c r="F108">
-        <v>1.139620720376734</v>
       </c>
       <c r="G108">
         <v>1.125464910310793</v>
       </c>
       <c r="H108">
-        <v>1.095402717451977</v>
+        <v>1.095560373157526</v>
       </c>
       <c r="I108">
         <v>1.056353667519487</v>
@@ -4448,25 +4448,25 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.126638666157567</v>
+      </c>
+      <c r="C109">
+        <v>1.067511177347243</v>
+      </c>
+      <c r="D109">
         <v>0.9863488743325811</v>
       </c>
-      <c r="C109">
+      <c r="E109">
         <v>1.177408510229565</v>
       </c>
-      <c r="D109">
+      <c r="F109">
         <v>1.079437916500216</v>
-      </c>
-      <c r="E109">
-        <v>1.067511177347243</v>
-      </c>
-      <c r="F109">
-        <v>1.126638666157566</v>
       </c>
       <c r="G109">
         <v>1.109956564670572</v>
       </c>
       <c r="H109">
-        <v>1.091123568947038</v>
+        <v>1.091275531241752</v>
       </c>
       <c r="I109">
         <v>1.046575290830534</v>
@@ -4480,25 +4480,25 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>1.082983326969581</v>
+      </c>
+      <c r="C110">
+        <v>1.050521609538003</v>
+      </c>
+      <c r="D110">
         <v>0.9576154565971267</v>
       </c>
-      <c r="C110">
+      <c r="E110">
         <v>1.10147920468735</v>
       </c>
-      <c r="D110">
+      <c r="F110">
         <v>1.017760173310303</v>
-      </c>
-      <c r="E110">
-        <v>1.050521609538003</v>
-      </c>
-      <c r="F110">
-        <v>1.082983326969581</v>
       </c>
       <c r="G110">
         <v>1.0702267936291</v>
       </c>
       <c r="H110">
-        <v>1.046592256487114</v>
+        <v>1.04696430786323</v>
       </c>
       <c r="I110">
         <v>1.031282638434078</v>
@@ -4512,25 +4512,25 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>1.097365406643757</v>
+      </c>
+      <c r="C111">
+        <v>1.077198211624441</v>
+      </c>
+      <c r="D111">
         <v>0.9843672593163428</v>
       </c>
-      <c r="C111">
+      <c r="E111">
         <v>1.133128421861493</v>
       </c>
-      <c r="D111">
+      <c r="F111">
         <v>1.035003389636691</v>
-      </c>
-      <c r="E111">
-        <v>1.077198211624441</v>
-      </c>
-      <c r="F111">
-        <v>1.097365406643757</v>
       </c>
       <c r="G111">
         <v>1.084498388111424</v>
       </c>
       <c r="H111">
-        <v>1.068495056142924</v>
+        <v>1.068780395828376</v>
       </c>
       <c r="I111">
         <v>1.03911664789834</v>
@@ -4544,25 +4544,25 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.117602138220695</v>
+      </c>
+      <c r="C112">
+        <v>1.064232488822653</v>
+      </c>
+      <c r="D112">
         <v>0.9963670391368966</v>
       </c>
-      <c r="C112">
+      <c r="E112">
         <v>1.187926231870138</v>
       </c>
-      <c r="D112">
+      <c r="F112">
         <v>1.087337773777855</v>
-      </c>
-      <c r="E112">
-        <v>1.064232488822653</v>
-      </c>
-      <c r="F112">
-        <v>1.117602138220695</v>
       </c>
       <c r="G112">
         <v>1.104886744829161</v>
       </c>
       <c r="H112">
-        <v>1.093049615103506</v>
+        <v>1.093037321883688</v>
       </c>
       <c r="I112">
         <v>1.045648653784841</v>
@@ -4576,25 +4576,25 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.138602520045819</v>
+      </c>
+      <c r="C113">
+        <v>1.055663189269747</v>
+      </c>
+      <c r="D113">
         <v>0.9975229812297023</v>
       </c>
-      <c r="C113">
+      <c r="E113">
         <v>1.192968975122467</v>
       </c>
-      <c r="D113">
+      <c r="F113">
         <v>1.096805030426054</v>
-      </c>
-      <c r="E113">
-        <v>1.055663189269747</v>
-      </c>
-      <c r="F113">
-        <v>1.138602520045819</v>
       </c>
       <c r="G113">
         <v>1.121197778293286</v>
       </c>
       <c r="H113">
-        <v>1.100407938055628</v>
+        <v>1.100426806820445</v>
       </c>
       <c r="I113">
         <v>1.053410416970965</v>
@@ -4608,25 +4608,25 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.168130329642357</v>
+      </c>
+      <c r="C114">
+        <v>1.063561847988078</v>
+      </c>
+      <c r="D114">
         <v>1.004733858094347</v>
       </c>
-      <c r="C114">
+      <c r="E114">
         <v>1.193593314763231</v>
       </c>
-      <c r="D114">
+      <c r="F114">
         <v>1.109313313553174</v>
-      </c>
-      <c r="E114">
-        <v>1.063561847988078</v>
-      </c>
-      <c r="F114">
-        <v>1.168130329642357</v>
       </c>
       <c r="G114">
         <v>1.149027138677032</v>
       </c>
       <c r="H114">
-        <v>1.114571003312794</v>
+        <v>1.114737828336658</v>
       </c>
       <c r="I114">
         <v>1.058532049862497</v>
@@ -4640,25 +4640,25 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.16125747740868</v>
+      </c>
+      <c r="C115">
+        <v>1.02973174366617</v>
+      </c>
+      <c r="D115">
         <v>1.020972092255188</v>
       </c>
-      <c r="C115">
+      <c r="E115">
         <v>1.227211603112093</v>
       </c>
-      <c r="D115">
+      <c r="F115">
         <v>1.136402021576963</v>
-      </c>
-      <c r="E115">
-        <v>1.02973174366617</v>
-      </c>
-      <c r="F115">
-        <v>1.16125747740868</v>
       </c>
       <c r="G115">
         <v>1.140052403288758</v>
       </c>
       <c r="H115">
-        <v>1.119319429792632</v>
+        <v>1.11903345742117</v>
       </c>
       <c r="I115">
         <v>1.066410035322148</v>
@@ -4672,25 +4672,25 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.1415298459972</v>
+      </c>
+      <c r="C116">
+        <v>1.033383010432191</v>
+      </c>
+      <c r="D116">
         <v>1.01343094622117</v>
       </c>
-      <c r="C116">
+      <c r="E116">
         <v>1.212563634617232</v>
       </c>
-      <c r="D116">
+      <c r="F116">
         <v>1.13341801635546</v>
-      </c>
-      <c r="E116">
-        <v>1.033383010432191</v>
-      </c>
-      <c r="F116">
-        <v>1.1415298459972</v>
       </c>
       <c r="G116">
         <v>1.122526948704886</v>
       </c>
       <c r="H116">
-        <v>1.109510619288335</v>
+        <v>1.10925521066629</v>
       </c>
       <c r="I116">
         <v>1.060900471328436</v>
@@ -4704,25 +4704,25 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.176785032455136</v>
+      </c>
+      <c r="C117">
+        <v>1.056482861400894</v>
+      </c>
+      <c r="D117">
         <v>1.016898772499587</v>
       </c>
-      <c r="C117">
+      <c r="E117">
         <v>1.235616175199308</v>
       </c>
-      <c r="D117">
+      <c r="F117">
         <v>1.130231332440926</v>
-      </c>
-      <c r="E117">
-        <v>1.056482861400894</v>
-      </c>
-      <c r="F117">
-        <v>1.176785032455136</v>
       </c>
       <c r="G117">
         <v>1.157250997295723</v>
       </c>
       <c r="H117">
-        <v>1.128851328001604</v>
+        <v>1.12875509273239</v>
       </c>
       <c r="I117">
         <v>1.070094595507224</v>
@@ -4736,31 +4736,319 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.016898772499587</v>
+        <v>1.19345806287387</v>
       </c>
       <c r="C118">
-        <v>1.235616175199308</v>
+        <v>1.067287630402384</v>
       </c>
       <c r="D118">
-        <v>1.130231332440926</v>
+        <v>1.028513238289206</v>
       </c>
       <c r="E118">
-        <v>1.056482861400894</v>
+        <v>1.267217366247239</v>
       </c>
       <c r="F118">
-        <v>1.176785032455136</v>
+        <v>1.145808193383882</v>
       </c>
       <c r="G118">
-        <v>1.157250997295723</v>
+        <v>1.177920598298632</v>
       </c>
       <c r="H118">
-        <v>1.128851328001604</v>
+        <v>1.146537568233092</v>
       </c>
       <c r="I118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="J118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.191676212294769</v>
+      </c>
+      <c r="C119">
+        <v>1.04903129657228</v>
+      </c>
+      <c r="D119">
+        <v>1.018109759453955</v>
+      </c>
+      <c r="E119">
+        <v>1.270194986072424</v>
+      </c>
+      <c r="F119">
+        <v>1.11835743314633</v>
+      </c>
+      <c r="G119">
+        <v>1.175783621902814</v>
+      </c>
+      <c r="H119">
+        <v>1.137023833602359</v>
+      </c>
+      <c r="I119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="J119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.195367188494336</v>
+      </c>
+      <c r="C120">
+        <v>1.060134128166915</v>
+      </c>
+      <c r="D120">
+        <v>1.042439588264436</v>
+      </c>
+      <c r="E120">
+        <v>1.303813274421285</v>
+      </c>
+      <c r="F120">
+        <v>1.120925022313663</v>
+      </c>
+      <c r="G120">
+        <v>1.18160283603592</v>
+      </c>
+      <c r="H120">
+        <v>1.150484042803238</v>
+      </c>
+      <c r="I120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="J120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.216240295278096</v>
+      </c>
+      <c r="C121">
+        <v>1.068479880774963</v>
+      </c>
+      <c r="D121">
+        <v>1.034237903891672</v>
+      </c>
+      <c r="E121">
+        <v>1.286667947363366</v>
+      </c>
+      <c r="F121">
+        <v>1.094363448108445</v>
+      </c>
+      <c r="G121">
+        <v>1.187173189942569</v>
+      </c>
+      <c r="H121">
+        <v>1.147805440664519</v>
+      </c>
+      <c r="I121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="J121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.153748249968181</v>
+      </c>
+      <c r="C122">
+        <v>1.026751117734724</v>
+      </c>
+      <c r="D122">
+        <v>1.007541146034018</v>
+      </c>
+      <c r="E122">
+        <v>1.282105465373163</v>
+      </c>
+      <c r="F122">
+        <v>1.081114984968374</v>
+      </c>
+      <c r="G122">
+        <v>1.139578729246303</v>
+      </c>
+      <c r="H122">
+        <v>1.114891046237101</v>
+      </c>
+      <c r="I122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="J122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.156930126002291</v>
+      </c>
+      <c r="C123">
+        <v>1.03301043219076</v>
+      </c>
+      <c r="D123">
+        <v>1.013981394836792</v>
+      </c>
+      <c r="E123">
+        <v>1.317500720391893</v>
+      </c>
+      <c r="F123">
+        <v>1.10128671059238</v>
+      </c>
+      <c r="G123">
+        <v>1.151544169432872</v>
+      </c>
+      <c r="H123">
+        <v>1.128701539109718</v>
+      </c>
+      <c r="I123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="J123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.100420007636502</v>
+      </c>
+      <c r="C124">
+        <v>1.027719821162444</v>
+      </c>
+      <c r="D124">
+        <v>1.006165024494963</v>
+      </c>
+      <c r="E124">
+        <v>1.319085582556911</v>
+      </c>
+      <c r="F124">
+        <v>1.102433177491516</v>
+      </c>
+      <c r="G124">
+        <v>1.101469093278654</v>
+      </c>
+      <c r="H124">
+        <v>1.109093995736458</v>
+      </c>
+      <c r="I124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="J124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.140384370624921</v>
+      </c>
+      <c r="C125">
+        <v>1.04344262295082</v>
+      </c>
+      <c r="D125">
+        <v>1.019265701546761</v>
+      </c>
+      <c r="E125">
+        <v>1.392997790798194</v>
+      </c>
+      <c r="F125">
+        <v>1.130131887844656</v>
+      </c>
+      <c r="G125">
+        <v>1.135280107472286</v>
+      </c>
+      <c r="H125">
+        <v>1.143067044372089</v>
+      </c>
+      <c r="I125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="J125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.105892834415171</v>
+      </c>
+      <c r="C126">
+        <v>1.020417287630402</v>
+      </c>
+      <c r="D126">
+        <v>1.026696757857654</v>
+      </c>
+      <c r="E126">
+        <v>1.415810200749208</v>
+      </c>
+      <c r="F126">
+        <v>1.12227912523981</v>
+      </c>
+      <c r="G126">
+        <v>1.104920343075101</v>
+      </c>
+      <c r="H126">
+        <v>1.13197428118984</v>
+      </c>
+      <c r="I126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="J126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.103347333587883</v>
+      </c>
+      <c r="C127">
+        <v>0.9888226527570789</v>
+      </c>
+      <c r="D127">
+        <v>1.014641933175538</v>
+      </c>
+      <c r="E127">
+        <v>1.439919316107963</v>
+      </c>
+      <c r="F127">
+        <v>1.145460131338605</v>
+      </c>
+      <c r="G127">
+        <v>1.09777896160459</v>
+      </c>
+      <c r="H127">
+        <v>1.130805954146048</v>
+      </c>
+      <c r="I127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="J127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4872,18 +5160,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -4915,254 +5203,233 @@
       <c r="L1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="J2">
-        <v>46.01</v>
+        <v>12.25669956207275</v>
       </c>
       <c r="K2">
-        <v>6.21</v>
+        <v>50.5802001953125</v>
       </c>
       <c r="L2">
-        <v>20.56</v>
-      </c>
-      <c r="M2">
-        <v>16.22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>77.6234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3">
-        <v>0.17</v>
+        <v>0.165</v>
       </c>
       <c r="J3">
-        <v>133.48</v>
+        <v>12.167799949646</v>
       </c>
       <c r="K3">
-        <v>9.199999999999999</v>
+        <v>51.78060150146484</v>
       </c>
       <c r="L3">
-        <v>4.83</v>
-      </c>
-      <c r="M3">
-        <v>38.77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="J4">
-        <v>36.2</v>
+        <v>6.168000221252441</v>
       </c>
       <c r="K4">
-        <v>3.04</v>
+        <v>45.57669830322266</v>
       </c>
       <c r="L4">
-        <v>-5.91</v>
-      </c>
-      <c r="M4">
-        <v>-12.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>16.2202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="J5">
-        <v>55.64</v>
+        <v>10.4798002243042</v>
       </c>
       <c r="K5">
-        <v>12.65</v>
+        <v>152.8901977539062</v>
       </c>
       <c r="L5">
-        <v>5.22</v>
-      </c>
-      <c r="M5">
-        <v>11.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>38.7678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>0.165</v>
       </c>
       <c r="J6">
-        <v>53.46</v>
+        <v>3.07480001449585</v>
       </c>
       <c r="K6">
-        <v>12.86</v>
+        <v>36.68439865112305</v>
       </c>
       <c r="L6">
-        <v>35.09</v>
-      </c>
-      <c r="M6">
-        <v>77.62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>-12.2529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>0.165</v>
       </c>
       <c r="J7">
-        <v>46.45</v>
+        <v>11.38379955291748</v>
       </c>
       <c r="K7">
-        <v>12.02</v>
+        <v>43.71340179443359</v>
       </c>
       <c r="L7">
-        <v>40.65</v>
-      </c>
-      <c r="M7">
-        <v>154.54</v>
+        <v>154.5365</v>
       </c>
     </row>
   </sheetData>
@@ -5180,19 +5447,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5200,19 +5467,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5220,19 +5487,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5240,19 +5507,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5260,19 +5527,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5280,19 +5547,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5300,19 +5567,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5320,19 +5587,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5340,19 +5607,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
         <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5360,19 +5627,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5380,19 +5647,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" t="s">
         <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5400,19 +5667,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5420,19 +5687,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5440,19 +5707,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5460,19 +5727,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5480,19 +5747,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5500,19 +5767,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5520,19 +5787,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5540,19 +5807,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5560,19 +5827,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5580,19 +5847,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -5610,73 +5877,73 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
         <v>197</v>
@@ -5684,10 +5951,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
         <v>198</v>
@@ -5695,10 +5962,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
         <v>199</v>
